--- a/Test-resault.xlsx
+++ b/Test-resault.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\parking-lot-image-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0994E24-679A-4799-9714-F9A365638ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FC3512-D1F8-4BF5-AF1E-2D3B13EEE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,6 +653,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,9 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G459" sqref="G459"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
       <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1030,10 +1030,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1070,8 +1070,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1106,8 +1106,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1144,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1180,8 +1180,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1230,10 +1230,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1272,8 +1272,8 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1308,8 +1308,8 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1344,8 +1344,8 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1380,8 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1430,10 +1430,10 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1472,8 +1472,8 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1508,8 +1508,8 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1544,8 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
@@ -1582,8 +1582,8 @@
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1632,10 +1632,10 @@
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1672,8 +1672,8 @@
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1708,8 +1708,8 @@
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1744,8 +1744,8 @@
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
@@ -1780,8 +1780,8 @@
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1830,10 +1830,10 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -1870,8 +1870,8 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="11" t="s">
         <v>12</v>
       </c>
@@ -1906,8 +1906,8 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="11" t="s">
         <v>16</v>
       </c>
@@ -1942,8 +1942,8 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="4" t="s">
         <v>14</v>
       </c>
@@ -1978,8 +1978,8 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
@@ -2028,10 +2028,10 @@
       <c r="A32" s="3">
         <v>26</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -2068,8 +2068,8 @@
       <c r="A33" s="3">
         <v>27</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
@@ -2104,8 +2104,8 @@
       <c r="A34" s="3">
         <v>28</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
@@ -2140,8 +2140,8 @@
       <c r="A35" s="3">
         <v>29</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="11" t="s">
         <v>14</v>
       </c>
@@ -2176,8 +2176,8 @@
       <c r="A36" s="3">
         <v>30</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
@@ -2226,10 +2226,10 @@
       <c r="A38" s="3">
         <v>31</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -2266,8 +2266,8 @@
       <c r="A39" s="3">
         <v>32</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="11" t="s">
         <v>12</v>
       </c>
@@ -2302,8 +2302,8 @@
       <c r="A40" s="3">
         <v>33</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="11" t="s">
         <v>16</v>
       </c>
@@ -2338,8 +2338,8 @@
       <c r="A41" s="3">
         <v>34</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="11" t="s">
         <v>14</v>
       </c>
@@ -2374,8 +2374,8 @@
       <c r="A42" s="3">
         <v>35</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="11" t="s">
         <v>4</v>
       </c>
@@ -2424,10 +2424,10 @@
       <c r="A44" s="3">
         <v>36</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -2464,8 +2464,8 @@
       <c r="A45" s="3">
         <v>37</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
@@ -2500,8 +2500,8 @@
       <c r="A46" s="3">
         <v>38</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="4" t="s">
         <v>16</v>
       </c>
@@ -2536,8 +2536,8 @@
       <c r="A47" s="3">
         <v>39</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
@@ -2572,8 +2572,8 @@
       <c r="A48" s="3">
         <v>40</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="4" t="s">
         <v>4</v>
       </c>
@@ -2622,10 +2622,10 @@
       <c r="A50" s="3">
         <v>41</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -2662,8 +2662,8 @@
       <c r="A51" s="3">
         <v>42</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="21"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="4" t="s">
         <v>12</v>
       </c>
@@ -2698,8 +2698,8 @@
       <c r="A52" s="3">
         <v>43</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="21"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="4" t="s">
         <v>16</v>
       </c>
@@ -2734,8 +2734,8 @@
       <c r="A53" s="3">
         <v>44</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="21"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="4" t="s">
         <v>14</v>
       </c>
@@ -2770,8 +2770,8 @@
       <c r="A54" s="3">
         <v>45</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="4" t="s">
         <v>4</v>
       </c>
@@ -2820,10 +2820,10 @@
       <c r="A56" s="3">
         <v>46</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -2860,8 +2860,8 @@
       <c r="A57" s="3">
         <v>47</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="4" t="s">
         <v>12</v>
       </c>
@@ -2896,8 +2896,8 @@
       <c r="A58" s="3">
         <v>48</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="4" t="s">
         <v>16</v>
       </c>
@@ -2932,8 +2932,8 @@
       <c r="A59" s="3">
         <v>49</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="4" t="s">
         <v>14</v>
       </c>
@@ -2968,8 +2968,8 @@
       <c r="A60" s="3">
         <v>50</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="4" t="s">
         <v>4</v>
       </c>
@@ -3018,10 +3018,10 @@
       <c r="A62" s="3">
         <v>51</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -3058,8 +3058,8 @@
       <c r="A63" s="3">
         <v>52</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
@@ -3094,8 +3094,8 @@
       <c r="A64" s="3">
         <v>53</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="4" t="s">
         <v>16</v>
       </c>
@@ -3130,8 +3130,8 @@
       <c r="A65" s="3">
         <v>54</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="4" t="s">
         <v>14</v>
       </c>
@@ -3166,8 +3166,8 @@
       <c r="A66" s="3">
         <v>55</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="4" t="s">
         <v>4</v>
       </c>
@@ -3216,10 +3216,10 @@
       <c r="A68" s="3">
         <v>56</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -3256,8 +3256,8 @@
       <c r="A69" s="3">
         <v>57</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
@@ -3292,8 +3292,8 @@
       <c r="A70" s="3">
         <v>58</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="4" t="s">
         <v>16</v>
       </c>
@@ -3328,8 +3328,8 @@
       <c r="A71" s="3">
         <v>59</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="4" t="s">
         <v>14</v>
       </c>
@@ -3364,8 +3364,8 @@
       <c r="A72" s="3">
         <v>60</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="4" t="s">
         <v>4</v>
       </c>
@@ -3414,10 +3414,10 @@
       <c r="A74" s="3">
         <v>61</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -3454,8 +3454,8 @@
       <c r="A75" s="3">
         <v>62</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="21"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="4" t="s">
         <v>12</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="A76" s="3">
         <v>63</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="21"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="4" t="s">
         <v>16</v>
       </c>
@@ -3526,8 +3526,8 @@
       <c r="A77" s="3">
         <v>64</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="21"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="4" t="s">
         <v>14</v>
       </c>
@@ -3562,8 +3562,8 @@
       <c r="A78" s="3">
         <v>65</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="22"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="4" t="s">
         <v>4</v>
       </c>
@@ -3612,10 +3612,10 @@
       <c r="A80" s="3">
         <v>66</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="11" t="s">
@@ -3652,8 +3652,8 @@
       <c r="A81" s="3">
         <v>67</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="21"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
@@ -3688,8 +3688,8 @@
       <c r="A82" s="3">
         <v>68</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="21"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="4" t="s">
         <v>16</v>
       </c>
@@ -3724,8 +3724,8 @@
       <c r="A83" s="3">
         <v>69</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="21"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="4" t="s">
         <v>14</v>
       </c>
@@ -3760,8 +3760,8 @@
       <c r="A84" s="3">
         <v>70</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="22"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="4" t="s">
         <v>4</v>
       </c>
@@ -3810,10 +3810,10 @@
       <c r="A86" s="3">
         <v>71</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -3850,8 +3850,8 @@
       <c r="A87" s="3">
         <v>72</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="21"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="22"/>
       <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
@@ -3886,8 +3886,8 @@
       <c r="A88" s="3">
         <v>73</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="21"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="22"/>
       <c r="D88" s="4" t="s">
         <v>16</v>
       </c>
@@ -3922,8 +3922,8 @@
       <c r="A89" s="3">
         <v>74</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="21"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="4" t="s">
         <v>14</v>
       </c>
@@ -3958,8 +3958,8 @@
       <c r="A90" s="3">
         <v>75</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="22"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="23"/>
       <c r="D90" s="4" t="s">
         <v>4</v>
       </c>
@@ -4008,10 +4008,10 @@
       <c r="A92" s="3">
         <v>76</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="11" t="s">
@@ -4048,8 +4048,8 @@
       <c r="A93" s="3">
         <v>77</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="21"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="4" t="s">
         <v>12</v>
       </c>
@@ -4084,8 +4084,8 @@
       <c r="A94" s="3">
         <v>78</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="21"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="4" t="s">
         <v>16</v>
       </c>
@@ -4120,8 +4120,8 @@
       <c r="A95" s="3">
         <v>79</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="21"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="4" t="s">
         <v>14</v>
       </c>
@@ -4156,8 +4156,8 @@
       <c r="A96" s="3">
         <v>80</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="4" t="s">
         <v>4</v>
       </c>
@@ -4206,10 +4206,10 @@
       <c r="A98" s="3">
         <v>81</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="11" t="s">
@@ -4246,8 +4246,8 @@
       <c r="A99" s="3">
         <v>82</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="21"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
@@ -4282,8 +4282,8 @@
       <c r="A100" s="3">
         <v>83</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="21"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="4" t="s">
         <v>16</v>
       </c>
@@ -4318,8 +4318,8 @@
       <c r="A101" s="3">
         <v>84</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="21"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="4" t="s">
         <v>14</v>
       </c>
@@ -4354,8 +4354,8 @@
       <c r="A102" s="3">
         <v>85</v>
       </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="4" t="s">
         <v>4</v>
       </c>
@@ -4404,10 +4404,10 @@
       <c r="A104" s="3">
         <v>86</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D104" s="11" t="s">
@@ -4444,8 +4444,8 @@
       <c r="A105" s="3">
         <v>87</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="4" t="s">
         <v>12</v>
       </c>
@@ -4480,8 +4480,8 @@
       <c r="A106" s="3">
         <v>88</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="4" t="s">
         <v>16</v>
       </c>
@@ -4516,8 +4516,8 @@
       <c r="A107" s="3">
         <v>89</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="4" t="s">
         <v>14</v>
       </c>
@@ -4552,8 +4552,8 @@
       <c r="A108" s="3">
         <v>90</v>
       </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="4" t="s">
         <v>4</v>
       </c>
@@ -4602,10 +4602,10 @@
       <c r="A110" s="3">
         <v>91</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D110" s="11" t="s">
@@ -4642,8 +4642,8 @@
       <c r="A111" s="3">
         <v>92</v>
       </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="4" t="s">
         <v>12</v>
       </c>
@@ -4678,8 +4678,8 @@
       <c r="A112" s="3">
         <v>93</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="4" t="s">
         <v>16</v>
       </c>
@@ -4714,8 +4714,8 @@
       <c r="A113" s="3">
         <v>94</v>
       </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="4" t="s">
         <v>14</v>
       </c>
@@ -4750,8 +4750,8 @@
       <c r="A114" s="3">
         <v>95</v>
       </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="4" t="s">
         <v>4</v>
       </c>
@@ -4800,10 +4800,10 @@
       <c r="A116" s="3">
         <v>96</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D116" s="11" t="s">
@@ -4840,8 +4840,8 @@
       <c r="A117" s="3">
         <v>97</v>
       </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="21"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="22"/>
       <c r="D117" s="4" t="s">
         <v>12</v>
       </c>
@@ -4876,8 +4876,8 @@
       <c r="A118" s="3">
         <v>98</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="21"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="22"/>
       <c r="D118" s="4" t="s">
         <v>16</v>
       </c>
@@ -4912,8 +4912,8 @@
       <c r="A119" s="3">
         <v>99</v>
       </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="21"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="22"/>
       <c r="D119" s="4" t="s">
         <v>14</v>
       </c>
@@ -4948,8 +4948,8 @@
       <c r="A120" s="3">
         <v>100</v>
       </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="22"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="23"/>
       <c r="D120" s="4" t="s">
         <v>4</v>
       </c>
@@ -4998,10 +4998,10 @@
       <c r="A122" s="3">
         <v>101</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D122" s="11" t="s">
@@ -5038,8 +5038,8 @@
       <c r="A123" s="3">
         <v>102</v>
       </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="21"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="22"/>
       <c r="D123" s="4" t="s">
         <v>12</v>
       </c>
@@ -5074,8 +5074,8 @@
       <c r="A124" s="3">
         <v>103</v>
       </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="21"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="22"/>
       <c r="D124" s="4" t="s">
         <v>16</v>
       </c>
@@ -5110,8 +5110,8 @@
       <c r="A125" s="3">
         <v>104</v>
       </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="21"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="22"/>
       <c r="D125" s="4" t="s">
         <v>14</v>
       </c>
@@ -5146,8 +5146,8 @@
       <c r="A126" s="3">
         <v>105</v>
       </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="22"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="23"/>
       <c r="D126" s="4" t="s">
         <v>4</v>
       </c>
@@ -5196,10 +5196,10 @@
       <c r="A128" s="3">
         <v>106</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D128" s="11" t="s">
@@ -5236,8 +5236,8 @@
       <c r="A129" s="3">
         <v>107</v>
       </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="21"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="22"/>
       <c r="D129" s="4" t="s">
         <v>12</v>
       </c>
@@ -5272,8 +5272,8 @@
       <c r="A130" s="3">
         <v>108</v>
       </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="21"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="22"/>
       <c r="D130" s="4" t="s">
         <v>16</v>
       </c>
@@ -5308,8 +5308,8 @@
       <c r="A131" s="3">
         <v>109</v>
       </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="21"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="22"/>
       <c r="D131" s="4" t="s">
         <v>14</v>
       </c>
@@ -5344,8 +5344,8 @@
       <c r="A132" s="3">
         <v>110</v>
       </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="22"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="23"/>
       <c r="D132" s="4" t="s">
         <v>4</v>
       </c>
@@ -5394,10 +5394,10 @@
       <c r="A134" s="3">
         <v>111</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D134" s="11" t="s">
@@ -5434,8 +5434,8 @@
       <c r="A135" s="3">
         <v>112</v>
       </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="21"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="22"/>
       <c r="D135" s="4" t="s">
         <v>12</v>
       </c>
@@ -5470,8 +5470,8 @@
       <c r="A136" s="3">
         <v>113</v>
       </c>
-      <c r="B136" s="18"/>
-      <c r="C136" s="21"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="22"/>
       <c r="D136" s="4" t="s">
         <v>16</v>
       </c>
@@ -5506,8 +5506,8 @@
       <c r="A137" s="3">
         <v>114</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="21"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="22"/>
       <c r="D137" s="4" t="s">
         <v>14</v>
       </c>
@@ -5542,8 +5542,8 @@
       <c r="A138" s="3">
         <v>115</v>
       </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="22"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="23"/>
       <c r="D138" s="4" t="s">
         <v>4</v>
       </c>
@@ -5592,10 +5592,10 @@
       <c r="A140" s="3">
         <v>116</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D140" s="11" t="s">
@@ -5632,8 +5632,8 @@
       <c r="A141" s="3">
         <v>117</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="21"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="22"/>
       <c r="D141" s="4" t="s">
         <v>12</v>
       </c>
@@ -5668,8 +5668,8 @@
       <c r="A142" s="3">
         <v>118</v>
       </c>
-      <c r="B142" s="18"/>
-      <c r="C142" s="21"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="22"/>
       <c r="D142" s="4" t="s">
         <v>16</v>
       </c>
@@ -5704,8 +5704,8 @@
       <c r="A143" s="3">
         <v>119</v>
       </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="21"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="22"/>
       <c r="D143" s="4" t="s">
         <v>14</v>
       </c>
@@ -5740,8 +5740,8 @@
       <c r="A144" s="3">
         <v>120</v>
       </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="22"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="23"/>
       <c r="D144" s="4" t="s">
         <v>4</v>
       </c>
@@ -5790,10 +5790,10 @@
       <c r="A146" s="3">
         <v>121</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D146" s="11" t="s">
@@ -5830,8 +5830,8 @@
       <c r="A147" s="3">
         <v>122</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="21"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="22"/>
       <c r="D147" s="4" t="s">
         <v>12</v>
       </c>
@@ -5866,8 +5866,8 @@
       <c r="A148" s="3">
         <v>123</v>
       </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="21"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="22"/>
       <c r="D148" s="4" t="s">
         <v>16</v>
       </c>
@@ -5902,8 +5902,8 @@
       <c r="A149" s="3">
         <v>124</v>
       </c>
-      <c r="B149" s="18"/>
-      <c r="C149" s="21"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="22"/>
       <c r="D149" s="4" t="s">
         <v>14</v>
       </c>
@@ -5938,8 +5938,8 @@
       <c r="A150" s="3">
         <v>125</v>
       </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="22"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="23"/>
       <c r="D150" s="4" t="s">
         <v>4</v>
       </c>
@@ -5988,10 +5988,10 @@
       <c r="A152" s="3">
         <v>126</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D152" s="11" t="s">
@@ -6028,8 +6028,8 @@
       <c r="A153" s="3">
         <v>127</v>
       </c>
-      <c r="B153" s="18"/>
-      <c r="C153" s="21"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="22"/>
       <c r="D153" s="4" t="s">
         <v>12</v>
       </c>
@@ -6064,8 +6064,8 @@
       <c r="A154" s="3">
         <v>128</v>
       </c>
-      <c r="B154" s="18"/>
-      <c r="C154" s="21"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="22"/>
       <c r="D154" s="4" t="s">
         <v>16</v>
       </c>
@@ -6100,8 +6100,8 @@
       <c r="A155" s="3">
         <v>129</v>
       </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="21"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="22"/>
       <c r="D155" s="4" t="s">
         <v>14</v>
       </c>
@@ -6136,8 +6136,8 @@
       <c r="A156" s="3">
         <v>130</v>
       </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="22"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="23"/>
       <c r="D156" s="4" t="s">
         <v>4</v>
       </c>
@@ -6186,10 +6186,10 @@
       <c r="A158" s="3">
         <v>131</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D158" s="11" t="s">
@@ -6226,8 +6226,8 @@
       <c r="A159" s="3">
         <v>132</v>
       </c>
-      <c r="B159" s="18"/>
-      <c r="C159" s="21"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="4" t="s">
         <v>12</v>
       </c>
@@ -6262,8 +6262,8 @@
       <c r="A160" s="3">
         <v>133</v>
       </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="21"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="22"/>
       <c r="D160" s="4" t="s">
         <v>16</v>
       </c>
@@ -6298,8 +6298,8 @@
       <c r="A161" s="3">
         <v>134</v>
       </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="21"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="22"/>
       <c r="D161" s="4" t="s">
         <v>14</v>
       </c>
@@ -6334,8 +6334,8 @@
       <c r="A162" s="3">
         <v>135</v>
       </c>
-      <c r="B162" s="19"/>
-      <c r="C162" s="22"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="23"/>
       <c r="D162" s="4" t="s">
         <v>4</v>
       </c>
@@ -6384,10 +6384,10 @@
       <c r="A164" s="3">
         <v>136</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="11" t="s">
@@ -6424,8 +6424,8 @@
       <c r="A165" s="3">
         <v>137</v>
       </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="4" t="s">
         <v>12</v>
       </c>
@@ -6460,8 +6460,8 @@
       <c r="A166" s="3">
         <v>138</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="4" t="s">
         <v>16</v>
       </c>
@@ -6496,8 +6496,8 @@
       <c r="A167" s="3">
         <v>139</v>
       </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="4" t="s">
         <v>14</v>
       </c>
@@ -6532,8 +6532,8 @@
       <c r="A168" s="3">
         <v>140</v>
       </c>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
       <c r="D168" s="4" t="s">
         <v>4</v>
       </c>
@@ -6582,10 +6582,10 @@
       <c r="A170" s="3">
         <v>141</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="11" t="s">
@@ -6622,8 +6622,8 @@
       <c r="A171" s="3">
         <v>142</v>
       </c>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="4" t="s">
         <v>12</v>
       </c>
@@ -6658,8 +6658,8 @@
       <c r="A172" s="3">
         <v>143</v>
       </c>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="4" t="s">
         <v>16</v>
       </c>
@@ -6694,8 +6694,8 @@
       <c r="A173" s="3">
         <v>144</v>
       </c>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="4" t="s">
         <v>14</v>
       </c>
@@ -6730,8 +6730,8 @@
       <c r="A174" s="3">
         <v>145</v>
       </c>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
       <c r="D174" s="4" t="s">
         <v>4</v>
       </c>
@@ -6780,10 +6780,10 @@
       <c r="A176" s="3">
         <v>146</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="11" t="s">
@@ -6820,8 +6820,8 @@
       <c r="A177" s="3">
         <v>147</v>
       </c>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="4" t="s">
         <v>12</v>
       </c>
@@ -6856,8 +6856,8 @@
       <c r="A178" s="3">
         <v>148</v>
       </c>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="4" t="s">
         <v>16</v>
       </c>
@@ -6892,8 +6892,8 @@
       <c r="A179" s="3">
         <v>149</v>
       </c>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
       <c r="D179" s="4" t="s">
         <v>14</v>
       </c>
@@ -6928,8 +6928,8 @@
       <c r="A180" s="3">
         <v>150</v>
       </c>
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
       <c r="D180" s="4" t="s">
         <v>4</v>
       </c>
@@ -6978,10 +6978,10 @@
       <c r="A182" s="3">
         <v>151</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="11" t="s">
@@ -7018,8 +7018,8 @@
       <c r="A183" s="3">
         <v>152</v>
       </c>
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="4" t="s">
         <v>12</v>
       </c>
@@ -7054,8 +7054,8 @@
       <c r="A184" s="3">
         <v>153</v>
       </c>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
       <c r="D184" s="4" t="s">
         <v>16</v>
       </c>
@@ -7090,8 +7090,8 @@
       <c r="A185" s="3">
         <v>154</v>
       </c>
-      <c r="B185" s="18"/>
-      <c r="C185" s="18"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="4" t="s">
         <v>14</v>
       </c>
@@ -7126,8 +7126,8 @@
       <c r="A186" s="3">
         <v>155</v>
       </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
       <c r="D186" s="4" t="s">
         <v>4</v>
       </c>
@@ -7176,10 +7176,10 @@
       <c r="A188" s="3">
         <v>156</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D188" s="11" t="s">
@@ -7216,8 +7216,8 @@
       <c r="A189" s="3">
         <v>157</v>
       </c>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="4" t="s">
         <v>12</v>
       </c>
@@ -7252,8 +7252,8 @@
       <c r="A190" s="3">
         <v>158</v>
       </c>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="4" t="s">
         <v>16</v>
       </c>
@@ -7288,8 +7288,8 @@
       <c r="A191" s="3">
         <v>159</v>
       </c>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="4" t="s">
         <v>14</v>
       </c>
@@ -7324,8 +7324,8 @@
       <c r="A192" s="3">
         <v>160</v>
       </c>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
       <c r="D192" s="4" t="s">
         <v>4</v>
       </c>
@@ -7374,10 +7374,10 @@
       <c r="A194" s="3">
         <v>161</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="11" t="s">
@@ -7414,8 +7414,8 @@
       <c r="A195" s="3">
         <v>162</v>
       </c>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="4" t="s">
         <v>12</v>
       </c>
@@ -7450,8 +7450,8 @@
       <c r="A196" s="3">
         <v>163</v>
       </c>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="4" t="s">
         <v>16</v>
       </c>
@@ -7486,8 +7486,8 @@
       <c r="A197" s="3">
         <v>164</v>
       </c>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
       <c r="D197" s="4" t="s">
         <v>14</v>
       </c>
@@ -7522,8 +7522,8 @@
       <c r="A198" s="3">
         <v>165</v>
       </c>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
       <c r="D198" s="4" t="s">
         <v>4</v>
       </c>
@@ -7572,10 +7572,10 @@
       <c r="A200" s="3">
         <v>166</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D200" s="11" t="s">
@@ -7612,8 +7612,8 @@
       <c r="A201" s="3">
         <v>167</v>
       </c>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="4" t="s">
         <v>12</v>
       </c>
@@ -7648,8 +7648,8 @@
       <c r="A202" s="3">
         <v>168</v>
       </c>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
       <c r="D202" s="4" t="s">
         <v>16</v>
       </c>
@@ -7684,8 +7684,8 @@
       <c r="A203" s="3">
         <v>169</v>
       </c>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
       <c r="D203" s="4" t="s">
         <v>14</v>
       </c>
@@ -7720,8 +7720,8 @@
       <c r="A204" s="3">
         <v>170</v>
       </c>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
       <c r="D204" s="4" t="s">
         <v>4</v>
       </c>
@@ -7770,10 +7770,10 @@
       <c r="A206" s="3">
         <v>171</v>
       </c>
-      <c r="B206" s="17" t="s">
+      <c r="B206" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C206" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D206" s="11" t="s">
@@ -7810,8 +7810,8 @@
       <c r="A207" s="3">
         <v>172</v>
       </c>
-      <c r="B207" s="18"/>
-      <c r="C207" s="21"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="22"/>
       <c r="D207" s="4" t="s">
         <v>12</v>
       </c>
@@ -7846,8 +7846,8 @@
       <c r="A208" s="3">
         <v>173</v>
       </c>
-      <c r="B208" s="18"/>
-      <c r="C208" s="21"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="22"/>
       <c r="D208" s="4" t="s">
         <v>16</v>
       </c>
@@ -7882,8 +7882,8 @@
       <c r="A209" s="3">
         <v>174</v>
       </c>
-      <c r="B209" s="18"/>
-      <c r="C209" s="21"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="22"/>
       <c r="D209" s="4" t="s">
         <v>14</v>
       </c>
@@ -7918,8 +7918,8 @@
       <c r="A210" s="3">
         <v>175</v>
       </c>
-      <c r="B210" s="19"/>
-      <c r="C210" s="22"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="23"/>
       <c r="D210" s="4" t="s">
         <v>4</v>
       </c>
@@ -7968,10 +7968,10 @@
       <c r="A212" s="3">
         <v>176</v>
       </c>
-      <c r="B212" s="17" t="s">
+      <c r="B212" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D212" s="11" t="s">
@@ -8008,8 +8008,8 @@
       <c r="A213" s="3">
         <v>177</v>
       </c>
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
       <c r="D213" s="4" t="s">
         <v>12</v>
       </c>
@@ -8044,8 +8044,8 @@
       <c r="A214" s="3">
         <v>178</v>
       </c>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
       <c r="D214" s="4" t="s">
         <v>16</v>
       </c>
@@ -8080,8 +8080,8 @@
       <c r="A215" s="3">
         <v>179</v>
       </c>
-      <c r="B215" s="18"/>
-      <c r="C215" s="18"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="19"/>
       <c r="D215" s="4" t="s">
         <v>14</v>
       </c>
@@ -8116,8 +8116,8 @@
       <c r="A216" s="3">
         <v>180</v>
       </c>
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
       <c r="D216" s="4" t="s">
         <v>4</v>
       </c>
@@ -8166,10 +8166,10 @@
       <c r="A218" s="3">
         <v>181</v>
       </c>
-      <c r="B218" s="17" t="s">
+      <c r="B218" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D218" s="11" t="s">
@@ -8206,8 +8206,8 @@
       <c r="A219" s="3">
         <v>182</v>
       </c>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
       <c r="D219" s="4" t="s">
         <v>12</v>
       </c>
@@ -8242,8 +8242,8 @@
       <c r="A220" s="3">
         <v>183</v>
       </c>
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
       <c r="D220" s="4" t="s">
         <v>16</v>
       </c>
@@ -8278,8 +8278,8 @@
       <c r="A221" s="3">
         <v>184</v>
       </c>
-      <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="19"/>
       <c r="D221" s="4" t="s">
         <v>14</v>
       </c>
@@ -8314,8 +8314,8 @@
       <c r="A222" s="3">
         <v>185</v>
       </c>
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
       <c r="D222" s="4" t="s">
         <v>4</v>
       </c>
@@ -8364,10 +8364,10 @@
       <c r="A224" s="3">
         <v>186</v>
       </c>
-      <c r="B224" s="17" t="s">
+      <c r="B224" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D224" s="11" t="s">
@@ -8404,8 +8404,8 @@
       <c r="A225" s="3">
         <v>187</v>
       </c>
-      <c r="B225" s="18"/>
-      <c r="C225" s="18"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
       <c r="D225" s="4" t="s">
         <v>12</v>
       </c>
@@ -8440,8 +8440,8 @@
       <c r="A226" s="3">
         <v>188</v>
       </c>
-      <c r="B226" s="18"/>
-      <c r="C226" s="18"/>
+      <c r="B226" s="19"/>
+      <c r="C226" s="19"/>
       <c r="D226" s="4" t="s">
         <v>16</v>
       </c>
@@ -8476,8 +8476,8 @@
       <c r="A227" s="3">
         <v>189</v>
       </c>
-      <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
+      <c r="B227" s="19"/>
+      <c r="C227" s="19"/>
       <c r="D227" s="4" t="s">
         <v>14</v>
       </c>
@@ -8512,8 +8512,8 @@
       <c r="A228" s="3">
         <v>190</v>
       </c>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
       <c r="D228" s="4" t="s">
         <v>4</v>
       </c>
@@ -8562,10 +8562,10 @@
       <c r="A230" s="3">
         <v>191</v>
       </c>
-      <c r="B230" s="17" t="s">
+      <c r="B230" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D230" s="11" t="s">
@@ -8602,8 +8602,8 @@
       <c r="A231" s="3">
         <v>192</v>
       </c>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
       <c r="D231" s="4" t="s">
         <v>12</v>
       </c>
@@ -8638,8 +8638,8 @@
       <c r="A232" s="3">
         <v>193</v>
       </c>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
       <c r="D232" s="4" t="s">
         <v>16</v>
       </c>
@@ -8674,8 +8674,8 @@
       <c r="A233" s="3">
         <v>194</v>
       </c>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
       <c r="D233" s="4" t="s">
         <v>14</v>
       </c>
@@ -8710,8 +8710,8 @@
       <c r="A234" s="3">
         <v>195</v>
       </c>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
       <c r="D234" s="4" t="s">
         <v>4</v>
       </c>
@@ -8760,10 +8760,10 @@
       <c r="A236" s="3">
         <v>196</v>
       </c>
-      <c r="B236" s="17" t="s">
+      <c r="B236" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="C236" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D236" s="11" t="s">
@@ -8800,8 +8800,8 @@
       <c r="A237" s="3">
         <v>197</v>
       </c>
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
       <c r="D237" s="4" t="s">
         <v>12</v>
       </c>
@@ -8836,8 +8836,8 @@
       <c r="A238" s="3">
         <v>198</v>
       </c>
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
       <c r="D238" s="4" t="s">
         <v>16</v>
       </c>
@@ -8872,8 +8872,8 @@
       <c r="A239" s="3">
         <v>199</v>
       </c>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="19"/>
       <c r="D239" s="4" t="s">
         <v>14</v>
       </c>
@@ -8908,8 +8908,8 @@
       <c r="A240" s="3">
         <v>200</v>
       </c>
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
       <c r="D240" s="4" t="s">
         <v>4</v>
       </c>
@@ -8958,10 +8958,10 @@
       <c r="A242" s="3">
         <v>201</v>
       </c>
-      <c r="B242" s="17" t="s">
+      <c r="B242" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C242" s="17" t="s">
+      <c r="C242" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D242" s="11" t="s">
@@ -8998,8 +8998,8 @@
       <c r="A243" s="3">
         <v>202</v>
       </c>
-      <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
       <c r="D243" s="4" t="s">
         <v>12</v>
       </c>
@@ -9034,8 +9034,8 @@
       <c r="A244" s="3">
         <v>203</v>
       </c>
-      <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
       <c r="D244" s="4" t="s">
         <v>16</v>
       </c>
@@ -9070,8 +9070,8 @@
       <c r="A245" s="3">
         <v>204</v>
       </c>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
       <c r="D245" s="4" t="s">
         <v>14</v>
       </c>
@@ -9106,8 +9106,8 @@
       <c r="A246" s="3">
         <v>205</v>
       </c>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
       <c r="D246" s="4" t="s">
         <v>4</v>
       </c>
@@ -9156,10 +9156,10 @@
       <c r="A248" s="3">
         <v>206</v>
       </c>
-      <c r="B248" s="17" t="s">
+      <c r="B248" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="C248" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D248" s="11" t="s">
@@ -9196,8 +9196,8 @@
       <c r="A249" s="3">
         <v>207</v>
       </c>
-      <c r="B249" s="18"/>
-      <c r="C249" s="21"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="22"/>
       <c r="D249" s="4" t="s">
         <v>12</v>
       </c>
@@ -9232,8 +9232,8 @@
       <c r="A250" s="3">
         <v>208</v>
       </c>
-      <c r="B250" s="18"/>
-      <c r="C250" s="21"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="22"/>
       <c r="D250" s="4" t="s">
         <v>16</v>
       </c>
@@ -9268,8 +9268,8 @@
       <c r="A251" s="3">
         <v>209</v>
       </c>
-      <c r="B251" s="18"/>
-      <c r="C251" s="21"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="22"/>
       <c r="D251" s="4" t="s">
         <v>14</v>
       </c>
@@ -9304,8 +9304,8 @@
       <c r="A252" s="3">
         <v>210</v>
       </c>
-      <c r="B252" s="19"/>
-      <c r="C252" s="22"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="23"/>
       <c r="D252" s="4" t="s">
         <v>4</v>
       </c>
@@ -9354,10 +9354,10 @@
       <c r="A254" s="3">
         <v>211</v>
       </c>
-      <c r="B254" s="17" t="s">
+      <c r="B254" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C254" s="17" t="s">
+      <c r="C254" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D254" s="11" t="s">
@@ -9394,8 +9394,8 @@
       <c r="A255" s="3">
         <v>212</v>
       </c>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="19"/>
       <c r="D255" s="4" t="s">
         <v>12</v>
       </c>
@@ -9430,8 +9430,8 @@
       <c r="A256" s="3">
         <v>213</v>
       </c>
-      <c r="B256" s="18"/>
-      <c r="C256" s="18"/>
+      <c r="B256" s="19"/>
+      <c r="C256" s="19"/>
       <c r="D256" s="4" t="s">
         <v>16</v>
       </c>
@@ -9466,8 +9466,8 @@
       <c r="A257" s="3">
         <v>214</v>
       </c>
-      <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="19"/>
       <c r="D257" s="4" t="s">
         <v>14</v>
       </c>
@@ -9502,8 +9502,8 @@
       <c r="A258" s="3">
         <v>215</v>
       </c>
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
       <c r="D258" s="4" t="s">
         <v>4</v>
       </c>
@@ -9552,10 +9552,10 @@
       <c r="A260" s="3">
         <v>216</v>
       </c>
-      <c r="B260" s="17" t="s">
+      <c r="B260" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D260" s="11" t="s">
@@ -9592,8 +9592,8 @@
       <c r="A261" s="3">
         <v>217</v>
       </c>
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
       <c r="D261" s="4" t="s">
         <v>12</v>
       </c>
@@ -9628,8 +9628,8 @@
       <c r="A262" s="3">
         <v>218</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
+      <c r="B262" s="19"/>
+      <c r="C262" s="19"/>
       <c r="D262" s="4" t="s">
         <v>16</v>
       </c>
@@ -9664,8 +9664,8 @@
       <c r="A263" s="3">
         <v>219</v>
       </c>
-      <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
       <c r="D263" s="4" t="s">
         <v>14</v>
       </c>
@@ -9700,8 +9700,8 @@
       <c r="A264" s="3">
         <v>220</v>
       </c>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
       <c r="D264" s="4" t="s">
         <v>4</v>
       </c>
@@ -9750,10 +9750,10 @@
       <c r="A266" s="3">
         <v>221</v>
       </c>
-      <c r="B266" s="17" t="s">
+      <c r="B266" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C266" s="20" t="s">
+      <c r="C266" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D266" s="11" t="s">
@@ -9790,8 +9790,8 @@
       <c r="A267" s="3">
         <v>222</v>
       </c>
-      <c r="B267" s="18"/>
-      <c r="C267" s="21"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="22"/>
       <c r="D267" s="4" t="s">
         <v>12</v>
       </c>
@@ -9826,8 +9826,8 @@
       <c r="A268" s="3">
         <v>223</v>
       </c>
-      <c r="B268" s="18"/>
-      <c r="C268" s="21"/>
+      <c r="B268" s="19"/>
+      <c r="C268" s="22"/>
       <c r="D268" s="4" t="s">
         <v>16</v>
       </c>
@@ -9862,8 +9862,8 @@
       <c r="A269" s="3">
         <v>224</v>
       </c>
-      <c r="B269" s="18"/>
-      <c r="C269" s="21"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="22"/>
       <c r="D269" s="4" t="s">
         <v>14</v>
       </c>
@@ -9898,8 +9898,8 @@
       <c r="A270" s="3">
         <v>225</v>
       </c>
-      <c r="B270" s="19"/>
-      <c r="C270" s="22"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="23"/>
       <c r="D270" s="4" t="s">
         <v>4</v>
       </c>
@@ -9948,10 +9948,10 @@
       <c r="A272" s="3">
         <v>226</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D272" s="11" t="s">
@@ -9988,8 +9988,8 @@
       <c r="A273" s="3">
         <v>227</v>
       </c>
-      <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
       <c r="D273" s="4" t="s">
         <v>12</v>
       </c>
@@ -10024,8 +10024,8 @@
       <c r="A274" s="3">
         <v>228</v>
       </c>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
+      <c r="B274" s="19"/>
+      <c r="C274" s="19"/>
       <c r="D274" s="4" t="s">
         <v>16</v>
       </c>
@@ -10060,8 +10060,8 @@
       <c r="A275" s="3">
         <v>229</v>
       </c>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
       <c r="D275" s="4" t="s">
         <v>14</v>
       </c>
@@ -10096,8 +10096,8 @@
       <c r="A276" s="3">
         <v>230</v>
       </c>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
       <c r="D276" s="4" t="s">
         <v>4</v>
       </c>
@@ -10146,10 +10146,10 @@
       <c r="A278" s="3">
         <v>231</v>
       </c>
-      <c r="B278" s="17" t="s">
+      <c r="B278" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C278" s="17" t="s">
+      <c r="C278" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D278" s="11" t="s">
@@ -10186,8 +10186,8 @@
       <c r="A279" s="3">
         <v>232</v>
       </c>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
       <c r="D279" s="4" t="s">
         <v>12</v>
       </c>
@@ -10222,8 +10222,8 @@
       <c r="A280" s="3">
         <v>233</v>
       </c>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
+      <c r="B280" s="19"/>
+      <c r="C280" s="19"/>
       <c r="D280" s="4" t="s">
         <v>16</v>
       </c>
@@ -10258,8 +10258,8 @@
       <c r="A281" s="3">
         <v>234</v>
       </c>
-      <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
+      <c r="B281" s="19"/>
+      <c r="C281" s="19"/>
       <c r="D281" s="4" t="s">
         <v>14</v>
       </c>
@@ -10294,8 +10294,8 @@
       <c r="A282" s="3">
         <v>235</v>
       </c>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
       <c r="D282" s="4" t="s">
         <v>4</v>
       </c>
@@ -10344,10 +10344,10 @@
       <c r="A284" s="3">
         <v>236</v>
       </c>
-      <c r="B284" s="17" t="s">
+      <c r="B284" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C284" s="20" t="s">
+      <c r="C284" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D284" s="11" t="s">
@@ -10384,8 +10384,8 @@
       <c r="A285" s="3">
         <v>237</v>
       </c>
-      <c r="B285" s="18"/>
-      <c r="C285" s="21"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="22"/>
       <c r="D285" s="4" t="s">
         <v>12</v>
       </c>
@@ -10420,8 +10420,8 @@
       <c r="A286" s="3">
         <v>238</v>
       </c>
-      <c r="B286" s="18"/>
-      <c r="C286" s="21"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="22"/>
       <c r="D286" s="4" t="s">
         <v>16</v>
       </c>
@@ -10456,8 +10456,8 @@
       <c r="A287" s="3">
         <v>239</v>
       </c>
-      <c r="B287" s="18"/>
-      <c r="C287" s="21"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="22"/>
       <c r="D287" s="4" t="s">
         <v>14</v>
       </c>
@@ -10492,8 +10492,8 @@
       <c r="A288" s="3">
         <v>240</v>
       </c>
-      <c r="B288" s="19"/>
-      <c r="C288" s="22"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="23"/>
       <c r="D288" s="4" t="s">
         <v>4</v>
       </c>
@@ -10542,10 +10542,10 @@
       <c r="A290" s="3">
         <v>241</v>
       </c>
-      <c r="B290" s="17" t="s">
+      <c r="B290" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C290" s="20" t="s">
+      <c r="C290" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D290" s="11" t="s">
@@ -10582,8 +10582,8 @@
       <c r="A291" s="3">
         <v>242</v>
       </c>
-      <c r="B291" s="18"/>
-      <c r="C291" s="21"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="22"/>
       <c r="D291" s="4" t="s">
         <v>12</v>
       </c>
@@ -10618,8 +10618,8 @@
       <c r="A292" s="3">
         <v>243</v>
       </c>
-      <c r="B292" s="18"/>
-      <c r="C292" s="21"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="22"/>
       <c r="D292" s="4" t="s">
         <v>16</v>
       </c>
@@ -10654,8 +10654,8 @@
       <c r="A293" s="3">
         <v>244</v>
       </c>
-      <c r="B293" s="18"/>
-      <c r="C293" s="21"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="22"/>
       <c r="D293" s="4" t="s">
         <v>14</v>
       </c>
@@ -10690,8 +10690,8 @@
       <c r="A294" s="3">
         <v>245</v>
       </c>
-      <c r="B294" s="19"/>
-      <c r="C294" s="22"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="23"/>
       <c r="D294" s="4" t="s">
         <v>4</v>
       </c>
@@ -10740,10 +10740,10 @@
       <c r="A296" s="3">
         <v>246</v>
       </c>
-      <c r="B296" s="17" t="s">
+      <c r="B296" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C296" s="20" t="s">
+      <c r="C296" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D296" s="11" t="s">
@@ -10780,8 +10780,8 @@
       <c r="A297" s="3">
         <v>247</v>
       </c>
-      <c r="B297" s="18"/>
-      <c r="C297" s="21"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="22"/>
       <c r="D297" s="4" t="s">
         <v>12</v>
       </c>
@@ -10816,8 +10816,8 @@
       <c r="A298" s="3">
         <v>248</v>
       </c>
-      <c r="B298" s="18"/>
-      <c r="C298" s="21"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="22"/>
       <c r="D298" s="4" t="s">
         <v>16</v>
       </c>
@@ -10852,8 +10852,8 @@
       <c r="A299" s="3">
         <v>249</v>
       </c>
-      <c r="B299" s="18"/>
-      <c r="C299" s="21"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="22"/>
       <c r="D299" s="4" t="s">
         <v>14</v>
       </c>
@@ -10888,8 +10888,8 @@
       <c r="A300" s="3">
         <v>250</v>
       </c>
-      <c r="B300" s="19"/>
-      <c r="C300" s="22"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="23"/>
       <c r="D300" s="4" t="s">
         <v>4</v>
       </c>
@@ -10938,10 +10938,10 @@
       <c r="A302" s="3">
         <v>251</v>
       </c>
-      <c r="B302" s="17" t="s">
+      <c r="B302" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C302" s="20" t="s">
+      <c r="C302" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D302" s="11" t="s">
@@ -10978,8 +10978,8 @@
       <c r="A303" s="3">
         <v>252</v>
       </c>
-      <c r="B303" s="18"/>
-      <c r="C303" s="21"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="22"/>
       <c r="D303" s="4" t="s">
         <v>12</v>
       </c>
@@ -11014,8 +11014,8 @@
       <c r="A304" s="3">
         <v>253</v>
       </c>
-      <c r="B304" s="18"/>
-      <c r="C304" s="21"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="22"/>
       <c r="D304" s="4" t="s">
         <v>16</v>
       </c>
@@ -11050,8 +11050,8 @@
       <c r="A305" s="3">
         <v>254</v>
       </c>
-      <c r="B305" s="18"/>
-      <c r="C305" s="21"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="22"/>
       <c r="D305" s="4" t="s">
         <v>14</v>
       </c>
@@ -11086,8 +11086,8 @@
       <c r="A306" s="3">
         <v>255</v>
       </c>
-      <c r="B306" s="19"/>
-      <c r="C306" s="22"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="23"/>
       <c r="D306" s="4" t="s">
         <v>4</v>
       </c>
@@ -11136,10 +11136,10 @@
       <c r="A308" s="3">
         <v>256</v>
       </c>
-      <c r="B308" s="17" t="s">
+      <c r="B308" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C308" s="20" t="s">
+      <c r="C308" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D308" s="11" t="s">
@@ -11176,8 +11176,8 @@
       <c r="A309" s="3">
         <v>257</v>
       </c>
-      <c r="B309" s="18"/>
-      <c r="C309" s="21"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="22"/>
       <c r="D309" s="4" t="s">
         <v>12</v>
       </c>
@@ -11212,8 +11212,8 @@
       <c r="A310" s="3">
         <v>258</v>
       </c>
-      <c r="B310" s="18"/>
-      <c r="C310" s="21"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="22"/>
       <c r="D310" s="4" t="s">
         <v>16</v>
       </c>
@@ -11248,8 +11248,8 @@
       <c r="A311" s="3">
         <v>259</v>
       </c>
-      <c r="B311" s="18"/>
-      <c r="C311" s="21"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="22"/>
       <c r="D311" s="4" t="s">
         <v>14</v>
       </c>
@@ -11284,8 +11284,8 @@
       <c r="A312" s="3">
         <v>260</v>
       </c>
-      <c r="B312" s="19"/>
-      <c r="C312" s="22"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="23"/>
       <c r="D312" s="4" t="s">
         <v>4</v>
       </c>
@@ -11334,10 +11334,10 @@
       <c r="A314" s="3">
         <v>261</v>
       </c>
-      <c r="B314" s="17" t="s">
+      <c r="B314" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C314" s="20" t="s">
+      <c r="C314" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D314" s="11" t="s">
@@ -11374,8 +11374,8 @@
       <c r="A315" s="3">
         <v>262</v>
       </c>
-      <c r="B315" s="18"/>
-      <c r="C315" s="21"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="22"/>
       <c r="D315" s="4" t="s">
         <v>12</v>
       </c>
@@ -11410,8 +11410,8 @@
       <c r="A316" s="3">
         <v>263</v>
       </c>
-      <c r="B316" s="18"/>
-      <c r="C316" s="21"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="22"/>
       <c r="D316" s="4" t="s">
         <v>16</v>
       </c>
@@ -11446,8 +11446,8 @@
       <c r="A317" s="3">
         <v>264</v>
       </c>
-      <c r="B317" s="18"/>
-      <c r="C317" s="21"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="22"/>
       <c r="D317" s="4" t="s">
         <v>14</v>
       </c>
@@ -11482,8 +11482,8 @@
       <c r="A318" s="3">
         <v>265</v>
       </c>
-      <c r="B318" s="19"/>
-      <c r="C318" s="22"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="23"/>
       <c r="D318" s="4" t="s">
         <v>4</v>
       </c>
@@ -11532,10 +11532,10 @@
       <c r="A320" s="3">
         <v>266</v>
       </c>
-      <c r="B320" s="17" t="s">
+      <c r="B320" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C320" s="20" t="s">
+      <c r="C320" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D320" s="11" t="s">
@@ -11572,8 +11572,8 @@
       <c r="A321" s="3">
         <v>267</v>
       </c>
-      <c r="B321" s="18"/>
-      <c r="C321" s="21"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="22"/>
       <c r="D321" s="4" t="s">
         <v>12</v>
       </c>
@@ -11608,8 +11608,8 @@
       <c r="A322" s="3">
         <v>268</v>
       </c>
-      <c r="B322" s="18"/>
-      <c r="C322" s="21"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="22"/>
       <c r="D322" s="4" t="s">
         <v>16</v>
       </c>
@@ -11644,8 +11644,8 @@
       <c r="A323" s="3">
         <v>269</v>
       </c>
-      <c r="B323" s="18"/>
-      <c r="C323" s="21"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="22"/>
       <c r="D323" s="4" t="s">
         <v>14</v>
       </c>
@@ -11680,8 +11680,8 @@
       <c r="A324" s="3">
         <v>270</v>
       </c>
-      <c r="B324" s="19"/>
-      <c r="C324" s="22"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="23"/>
       <c r="D324" s="4" t="s">
         <v>4</v>
       </c>
@@ -11730,10 +11730,10 @@
       <c r="A326" s="3">
         <v>271</v>
       </c>
-      <c r="B326" s="17" t="s">
+      <c r="B326" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C326" s="20" t="s">
+      <c r="C326" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D326" s="11" t="s">
@@ -11770,8 +11770,8 @@
       <c r="A327" s="3">
         <v>272</v>
       </c>
-      <c r="B327" s="18"/>
-      <c r="C327" s="21"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="22"/>
       <c r="D327" s="4" t="s">
         <v>12</v>
       </c>
@@ -11806,8 +11806,8 @@
       <c r="A328" s="3">
         <v>273</v>
       </c>
-      <c r="B328" s="18"/>
-      <c r="C328" s="21"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="22"/>
       <c r="D328" s="4" t="s">
         <v>16</v>
       </c>
@@ -11842,8 +11842,8 @@
       <c r="A329" s="3">
         <v>274</v>
       </c>
-      <c r="B329" s="18"/>
-      <c r="C329" s="21"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="22"/>
       <c r="D329" s="4" t="s">
         <v>14</v>
       </c>
@@ -11878,8 +11878,8 @@
       <c r="A330" s="3">
         <v>275</v>
       </c>
-      <c r="B330" s="19"/>
-      <c r="C330" s="22"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="23"/>
       <c r="D330" s="4" t="s">
         <v>4</v>
       </c>
@@ -11928,10 +11928,10 @@
       <c r="A332" s="3">
         <v>276</v>
       </c>
-      <c r="B332" s="17" t="s">
+      <c r="B332" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C332" s="20" t="s">
+      <c r="C332" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D332" s="11" t="s">
@@ -11968,8 +11968,8 @@
       <c r="A333" s="3">
         <v>277</v>
       </c>
-      <c r="B333" s="18"/>
-      <c r="C333" s="21"/>
+      <c r="B333" s="19"/>
+      <c r="C333" s="22"/>
       <c r="D333" s="4" t="s">
         <v>12</v>
       </c>
@@ -12004,8 +12004,8 @@
       <c r="A334" s="3">
         <v>278</v>
       </c>
-      <c r="B334" s="18"/>
-      <c r="C334" s="21"/>
+      <c r="B334" s="19"/>
+      <c r="C334" s="22"/>
       <c r="D334" s="4" t="s">
         <v>16</v>
       </c>
@@ -12040,8 +12040,8 @@
       <c r="A335" s="3">
         <v>279</v>
       </c>
-      <c r="B335" s="18"/>
-      <c r="C335" s="21"/>
+      <c r="B335" s="19"/>
+      <c r="C335" s="22"/>
       <c r="D335" s="4" t="s">
         <v>14</v>
       </c>
@@ -12076,8 +12076,8 @@
       <c r="A336" s="3">
         <v>280</v>
       </c>
-      <c r="B336" s="19"/>
-      <c r="C336" s="22"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="23"/>
       <c r="D336" s="4" t="s">
         <v>4</v>
       </c>
@@ -12126,10 +12126,10 @@
       <c r="A338" s="3">
         <v>281</v>
       </c>
-      <c r="B338" s="17" t="s">
+      <c r="B338" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C338" s="20" t="s">
+      <c r="C338" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D338" s="11" t="s">
@@ -12166,8 +12166,8 @@
       <c r="A339" s="3">
         <v>282</v>
       </c>
-      <c r="B339" s="18"/>
-      <c r="C339" s="21"/>
+      <c r="B339" s="19"/>
+      <c r="C339" s="22"/>
       <c r="D339" s="4" t="s">
         <v>12</v>
       </c>
@@ -12202,8 +12202,8 @@
       <c r="A340" s="3">
         <v>283</v>
       </c>
-      <c r="B340" s="18"/>
-      <c r="C340" s="21"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="22"/>
       <c r="D340" s="4" t="s">
         <v>16</v>
       </c>
@@ -12238,8 +12238,8 @@
       <c r="A341" s="3">
         <v>284</v>
       </c>
-      <c r="B341" s="18"/>
-      <c r="C341" s="21"/>
+      <c r="B341" s="19"/>
+      <c r="C341" s="22"/>
       <c r="D341" s="4" t="s">
         <v>14</v>
       </c>
@@ -12274,8 +12274,8 @@
       <c r="A342" s="3">
         <v>285</v>
       </c>
-      <c r="B342" s="19"/>
-      <c r="C342" s="22"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="23"/>
       <c r="D342" s="4" t="s">
         <v>4</v>
       </c>
@@ -12324,10 +12324,10 @@
       <c r="A344" s="3">
         <v>286</v>
       </c>
-      <c r="B344" s="17" t="s">
+      <c r="B344" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C344" s="20" t="s">
+      <c r="C344" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D344" s="11" t="s">
@@ -12364,8 +12364,8 @@
       <c r="A345" s="3">
         <v>287</v>
       </c>
-      <c r="B345" s="18"/>
-      <c r="C345" s="21"/>
+      <c r="B345" s="19"/>
+      <c r="C345" s="22"/>
       <c r="D345" s="4" t="s">
         <v>12</v>
       </c>
@@ -12400,8 +12400,8 @@
       <c r="A346" s="3">
         <v>288</v>
       </c>
-      <c r="B346" s="18"/>
-      <c r="C346" s="21"/>
+      <c r="B346" s="19"/>
+      <c r="C346" s="22"/>
       <c r="D346" s="4" t="s">
         <v>16</v>
       </c>
@@ -12436,8 +12436,8 @@
       <c r="A347" s="3">
         <v>289</v>
       </c>
-      <c r="B347" s="18"/>
-      <c r="C347" s="21"/>
+      <c r="B347" s="19"/>
+      <c r="C347" s="22"/>
       <c r="D347" s="4" t="s">
         <v>14</v>
       </c>
@@ -12472,8 +12472,8 @@
       <c r="A348" s="3">
         <v>290</v>
       </c>
-      <c r="B348" s="19"/>
-      <c r="C348" s="22"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="23"/>
       <c r="D348" s="4" t="s">
         <v>4</v>
       </c>
@@ -12522,10 +12522,10 @@
       <c r="A350" s="3">
         <v>291</v>
       </c>
-      <c r="B350" s="17" t="s">
+      <c r="B350" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C350" s="17" t="s">
+      <c r="C350" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D350" s="11" t="s">
@@ -12562,8 +12562,8 @@
       <c r="A351" s="3">
         <v>292</v>
       </c>
-      <c r="B351" s="18"/>
-      <c r="C351" s="18"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="19"/>
       <c r="D351" s="4" t="s">
         <v>12</v>
       </c>
@@ -12598,8 +12598,8 @@
       <c r="A352" s="3">
         <v>293</v>
       </c>
-      <c r="B352" s="18"/>
-      <c r="C352" s="18"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="19"/>
       <c r="D352" s="4" t="s">
         <v>16</v>
       </c>
@@ -12634,8 +12634,8 @@
       <c r="A353" s="3">
         <v>294</v>
       </c>
-      <c r="B353" s="18"/>
-      <c r="C353" s="18"/>
+      <c r="B353" s="19"/>
+      <c r="C353" s="19"/>
       <c r="D353" s="4" t="s">
         <v>14</v>
       </c>
@@ -12670,8 +12670,8 @@
       <c r="A354" s="3">
         <v>295</v>
       </c>
-      <c r="B354" s="19"/>
-      <c r="C354" s="19"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
       <c r="D354" s="4" t="s">
         <v>4</v>
       </c>
@@ -12720,10 +12720,10 @@
       <c r="A356" s="3">
         <v>296</v>
       </c>
-      <c r="B356" s="17" t="s">
+      <c r="B356" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C356" s="17" t="s">
+      <c r="C356" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D356" s="11" t="s">
@@ -12760,8 +12760,8 @@
       <c r="A357" s="3">
         <v>297</v>
       </c>
-      <c r="B357" s="18"/>
-      <c r="C357" s="18"/>
+      <c r="B357" s="19"/>
+      <c r="C357" s="19"/>
       <c r="D357" s="4" t="s">
         <v>12</v>
       </c>
@@ -12796,8 +12796,8 @@
       <c r="A358" s="3">
         <v>298</v>
       </c>
-      <c r="B358" s="18"/>
-      <c r="C358" s="18"/>
+      <c r="B358" s="19"/>
+      <c r="C358" s="19"/>
       <c r="D358" s="4" t="s">
         <v>16</v>
       </c>
@@ -12832,8 +12832,8 @@
       <c r="A359" s="3">
         <v>299</v>
       </c>
-      <c r="B359" s="18"/>
-      <c r="C359" s="18"/>
+      <c r="B359" s="19"/>
+      <c r="C359" s="19"/>
       <c r="D359" s="4" t="s">
         <v>14</v>
       </c>
@@ -12868,8 +12868,8 @@
       <c r="A360" s="3">
         <v>300</v>
       </c>
-      <c r="B360" s="19"/>
-      <c r="C360" s="19"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="20"/>
       <c r="D360" s="4" t="s">
         <v>4</v>
       </c>
@@ -12918,10 +12918,10 @@
       <c r="A362" s="3">
         <v>301</v>
       </c>
-      <c r="B362" s="17" t="s">
+      <c r="B362" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C362" s="17" t="s">
+      <c r="C362" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D362" s="11" t="s">
@@ -12958,8 +12958,8 @@
       <c r="A363" s="3">
         <v>302</v>
       </c>
-      <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
+      <c r="B363" s="19"/>
+      <c r="C363" s="19"/>
       <c r="D363" s="4" t="s">
         <v>12</v>
       </c>
@@ -12994,8 +12994,8 @@
       <c r="A364" s="3">
         <v>303</v>
       </c>
-      <c r="B364" s="18"/>
-      <c r="C364" s="18"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="19"/>
       <c r="D364" s="4" t="s">
         <v>16</v>
       </c>
@@ -13030,8 +13030,8 @@
       <c r="A365" s="3">
         <v>304</v>
       </c>
-      <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="19"/>
       <c r="D365" s="4" t="s">
         <v>14</v>
       </c>
@@ -13066,8 +13066,8 @@
       <c r="A366" s="3">
         <v>305</v>
       </c>
-      <c r="B366" s="19"/>
-      <c r="C366" s="19"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="20"/>
       <c r="D366" s="4" t="s">
         <v>4</v>
       </c>
@@ -13116,10 +13116,10 @@
       <c r="A368" s="3">
         <v>306</v>
       </c>
-      <c r="B368" s="17" t="s">
+      <c r="B368" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C368" s="20" t="s">
+      <c r="C368" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D368" s="11" t="s">
@@ -13156,8 +13156,8 @@
       <c r="A369" s="3">
         <v>307</v>
       </c>
-      <c r="B369" s="18"/>
-      <c r="C369" s="21"/>
+      <c r="B369" s="19"/>
+      <c r="C369" s="22"/>
       <c r="D369" s="4" t="s">
         <v>12</v>
       </c>
@@ -13192,8 +13192,8 @@
       <c r="A370" s="3">
         <v>308</v>
       </c>
-      <c r="B370" s="18"/>
-      <c r="C370" s="21"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="22"/>
       <c r="D370" s="4" t="s">
         <v>16</v>
       </c>
@@ -13228,8 +13228,8 @@
       <c r="A371" s="3">
         <v>309</v>
       </c>
-      <c r="B371" s="18"/>
-      <c r="C371" s="21"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="22"/>
       <c r="D371" s="4" t="s">
         <v>14</v>
       </c>
@@ -13264,8 +13264,8 @@
       <c r="A372" s="3">
         <v>310</v>
       </c>
-      <c r="B372" s="19"/>
-      <c r="C372" s="22"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="23"/>
       <c r="D372" s="4" t="s">
         <v>4</v>
       </c>
@@ -13314,10 +13314,10 @@
       <c r="A374" s="3">
         <v>311</v>
       </c>
-      <c r="B374" s="17" t="s">
+      <c r="B374" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C374" s="20" t="s">
+      <c r="C374" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D374" s="11" t="s">
@@ -13354,8 +13354,8 @@
       <c r="A375" s="3">
         <v>312</v>
       </c>
-      <c r="B375" s="18"/>
-      <c r="C375" s="21"/>
+      <c r="B375" s="19"/>
+      <c r="C375" s="22"/>
       <c r="D375" s="4" t="s">
         <v>12</v>
       </c>
@@ -13390,8 +13390,8 @@
       <c r="A376" s="3">
         <v>313</v>
       </c>
-      <c r="B376" s="18"/>
-      <c r="C376" s="21"/>
+      <c r="B376" s="19"/>
+      <c r="C376" s="22"/>
       <c r="D376" s="4" t="s">
         <v>16</v>
       </c>
@@ -13426,8 +13426,8 @@
       <c r="A377" s="3">
         <v>314</v>
       </c>
-      <c r="B377" s="18"/>
-      <c r="C377" s="21"/>
+      <c r="B377" s="19"/>
+      <c r="C377" s="22"/>
       <c r="D377" s="4" t="s">
         <v>14</v>
       </c>
@@ -13462,8 +13462,8 @@
       <c r="A378" s="3">
         <v>315</v>
       </c>
-      <c r="B378" s="19"/>
-      <c r="C378" s="22"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="23"/>
       <c r="D378" s="4" t="s">
         <v>4</v>
       </c>
@@ -13512,10 +13512,10 @@
       <c r="A380" s="3">
         <v>316</v>
       </c>
-      <c r="B380" s="17" t="s">
+      <c r="B380" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C380" s="20" t="s">
+      <c r="C380" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D380" s="11" t="s">
@@ -13552,8 +13552,8 @@
       <c r="A381" s="3">
         <v>317</v>
       </c>
-      <c r="B381" s="18"/>
-      <c r="C381" s="21"/>
+      <c r="B381" s="19"/>
+      <c r="C381" s="22"/>
       <c r="D381" s="4" t="s">
         <v>12</v>
       </c>
@@ -13588,8 +13588,8 @@
       <c r="A382" s="3">
         <v>318</v>
       </c>
-      <c r="B382" s="18"/>
-      <c r="C382" s="21"/>
+      <c r="B382" s="19"/>
+      <c r="C382" s="22"/>
       <c r="D382" s="4" t="s">
         <v>16</v>
       </c>
@@ -13624,8 +13624,8 @@
       <c r="A383" s="3">
         <v>319</v>
       </c>
-      <c r="B383" s="18"/>
-      <c r="C383" s="21"/>
+      <c r="B383" s="19"/>
+      <c r="C383" s="22"/>
       <c r="D383" s="4" t="s">
         <v>14</v>
       </c>
@@ -13660,8 +13660,8 @@
       <c r="A384" s="3">
         <v>320</v>
       </c>
-      <c r="B384" s="19"/>
-      <c r="C384" s="22"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="23"/>
       <c r="D384" s="4" t="s">
         <v>4</v>
       </c>
@@ -13710,10 +13710,10 @@
       <c r="A386" s="3">
         <v>321</v>
       </c>
-      <c r="B386" s="17" t="s">
+      <c r="B386" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C386" s="17" t="s">
+      <c r="C386" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D386" s="11" t="s">
@@ -13750,8 +13750,8 @@
       <c r="A387" s="3">
         <v>322</v>
       </c>
-      <c r="B387" s="18"/>
-      <c r="C387" s="18"/>
+      <c r="B387" s="19"/>
+      <c r="C387" s="19"/>
       <c r="D387" s="4" t="s">
         <v>12</v>
       </c>
@@ -13786,8 +13786,8 @@
       <c r="A388" s="3">
         <v>323</v>
       </c>
-      <c r="B388" s="18"/>
-      <c r="C388" s="18"/>
+      <c r="B388" s="19"/>
+      <c r="C388" s="19"/>
       <c r="D388" s="4" t="s">
         <v>16</v>
       </c>
@@ -13822,8 +13822,8 @@
       <c r="A389" s="3">
         <v>324</v>
       </c>
-      <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
+      <c r="B389" s="19"/>
+      <c r="C389" s="19"/>
       <c r="D389" s="4" t="s">
         <v>14</v>
       </c>
@@ -13858,8 +13858,8 @@
       <c r="A390" s="3">
         <v>325</v>
       </c>
-      <c r="B390" s="19"/>
-      <c r="C390" s="19"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
       <c r="D390" s="4" t="s">
         <v>4</v>
       </c>
@@ -13908,10 +13908,10 @@
       <c r="A392" s="3">
         <v>326</v>
       </c>
-      <c r="B392" s="17" t="s">
+      <c r="B392" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C392" s="17" t="s">
+      <c r="C392" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D392" s="11" t="s">
@@ -13948,8 +13948,8 @@
       <c r="A393" s="3">
         <v>327</v>
       </c>
-      <c r="B393" s="18"/>
-      <c r="C393" s="18"/>
+      <c r="B393" s="19"/>
+      <c r="C393" s="19"/>
       <c r="D393" s="4" t="s">
         <v>12</v>
       </c>
@@ -13984,8 +13984,8 @@
       <c r="A394" s="3">
         <v>328</v>
       </c>
-      <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
+      <c r="B394" s="19"/>
+      <c r="C394" s="19"/>
       <c r="D394" s="4" t="s">
         <v>16</v>
       </c>
@@ -14020,8 +14020,8 @@
       <c r="A395" s="3">
         <v>329</v>
       </c>
-      <c r="B395" s="18"/>
-      <c r="C395" s="18"/>
+      <c r="B395" s="19"/>
+      <c r="C395" s="19"/>
       <c r="D395" s="4" t="s">
         <v>14</v>
       </c>
@@ -14056,8 +14056,8 @@
       <c r="A396" s="3">
         <v>330</v>
       </c>
-      <c r="B396" s="19"/>
-      <c r="C396" s="19"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="20"/>
       <c r="D396" s="4" t="s">
         <v>4</v>
       </c>
@@ -14106,10 +14106,10 @@
       <c r="A398" s="3">
         <v>331</v>
       </c>
-      <c r="B398" s="17" t="s">
+      <c r="B398" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C398" s="17" t="s">
+      <c r="C398" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D398" s="11" t="s">
@@ -14146,8 +14146,8 @@
       <c r="A399" s="3">
         <v>332</v>
       </c>
-      <c r="B399" s="18"/>
-      <c r="C399" s="18"/>
+      <c r="B399" s="19"/>
+      <c r="C399" s="19"/>
       <c r="D399" s="4" t="s">
         <v>12</v>
       </c>
@@ -14182,8 +14182,8 @@
       <c r="A400" s="3">
         <v>333</v>
       </c>
-      <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
+      <c r="B400" s="19"/>
+      <c r="C400" s="19"/>
       <c r="D400" s="4" t="s">
         <v>16</v>
       </c>
@@ -14218,8 +14218,8 @@
       <c r="A401" s="3">
         <v>334</v>
       </c>
-      <c r="B401" s="18"/>
-      <c r="C401" s="18"/>
+      <c r="B401" s="19"/>
+      <c r="C401" s="19"/>
       <c r="D401" s="4" t="s">
         <v>14</v>
       </c>
@@ -14254,8 +14254,8 @@
       <c r="A402" s="3">
         <v>335</v>
       </c>
-      <c r="B402" s="19"/>
-      <c r="C402" s="19"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
       <c r="D402" s="4" t="s">
         <v>4</v>
       </c>
@@ -14304,10 +14304,10 @@
       <c r="A404" s="3">
         <v>336</v>
       </c>
-      <c r="B404" s="17" t="s">
+      <c r="B404" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C404" s="17" t="s">
+      <c r="C404" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D404" s="11" t="s">
@@ -14344,8 +14344,8 @@
       <c r="A405" s="3">
         <v>337</v>
       </c>
-      <c r="B405" s="18"/>
-      <c r="C405" s="18"/>
+      <c r="B405" s="19"/>
+      <c r="C405" s="19"/>
       <c r="D405" s="4" t="s">
         <v>12</v>
       </c>
@@ -14380,8 +14380,8 @@
       <c r="A406" s="3">
         <v>338</v>
       </c>
-      <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
+      <c r="B406" s="19"/>
+      <c r="C406" s="19"/>
       <c r="D406" s="4" t="s">
         <v>16</v>
       </c>
@@ -14416,8 +14416,8 @@
       <c r="A407" s="3">
         <v>339</v>
       </c>
-      <c r="B407" s="18"/>
-      <c r="C407" s="18"/>
+      <c r="B407" s="19"/>
+      <c r="C407" s="19"/>
       <c r="D407" s="4" t="s">
         <v>14</v>
       </c>
@@ -14452,8 +14452,8 @@
       <c r="A408" s="3">
         <v>340</v>
       </c>
-      <c r="B408" s="19"/>
-      <c r="C408" s="19"/>
+      <c r="B408" s="20"/>
+      <c r="C408" s="20"/>
       <c r="D408" s="4" t="s">
         <v>4</v>
       </c>
@@ -14502,10 +14502,10 @@
       <c r="A410" s="3">
         <v>341</v>
       </c>
-      <c r="B410" s="17" t="s">
+      <c r="B410" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C410" s="17" t="s">
+      <c r="C410" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D410" s="11" t="s">
@@ -14542,8 +14542,8 @@
       <c r="A411" s="3">
         <v>342</v>
       </c>
-      <c r="B411" s="18"/>
-      <c r="C411" s="18"/>
+      <c r="B411" s="19"/>
+      <c r="C411" s="19"/>
       <c r="D411" s="4" t="s">
         <v>12</v>
       </c>
@@ -14578,8 +14578,8 @@
       <c r="A412" s="3">
         <v>343</v>
       </c>
-      <c r="B412" s="18"/>
-      <c r="C412" s="18"/>
+      <c r="B412" s="19"/>
+      <c r="C412" s="19"/>
       <c r="D412" s="4" t="s">
         <v>16</v>
       </c>
@@ -14614,8 +14614,8 @@
       <c r="A413" s="3">
         <v>344</v>
       </c>
-      <c r="B413" s="18"/>
-      <c r="C413" s="18"/>
+      <c r="B413" s="19"/>
+      <c r="C413" s="19"/>
       <c r="D413" s="4" t="s">
         <v>14</v>
       </c>
@@ -14650,8 +14650,8 @@
       <c r="A414" s="3">
         <v>345</v>
       </c>
-      <c r="B414" s="19"/>
-      <c r="C414" s="19"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="20"/>
       <c r="D414" s="4" t="s">
         <v>4</v>
       </c>
@@ -14700,10 +14700,10 @@
       <c r="A416" s="3">
         <v>346</v>
       </c>
-      <c r="B416" s="17" t="s">
+      <c r="B416" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C416" s="20" t="s">
+      <c r="C416" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D416" s="11" t="s">
@@ -14740,8 +14740,8 @@
       <c r="A417" s="3">
         <v>347</v>
       </c>
-      <c r="B417" s="18"/>
-      <c r="C417" s="21"/>
+      <c r="B417" s="19"/>
+      <c r="C417" s="22"/>
       <c r="D417" s="4" t="s">
         <v>12</v>
       </c>
@@ -14776,8 +14776,8 @@
       <c r="A418" s="3">
         <v>348</v>
       </c>
-      <c r="B418" s="18"/>
-      <c r="C418" s="21"/>
+      <c r="B418" s="19"/>
+      <c r="C418" s="22"/>
       <c r="D418" s="4" t="s">
         <v>16</v>
       </c>
@@ -14812,8 +14812,8 @@
       <c r="A419" s="3">
         <v>349</v>
       </c>
-      <c r="B419" s="18"/>
-      <c r="C419" s="21"/>
+      <c r="B419" s="19"/>
+      <c r="C419" s="22"/>
       <c r="D419" s="4" t="s">
         <v>14</v>
       </c>
@@ -14848,8 +14848,8 @@
       <c r="A420" s="3">
         <v>350</v>
       </c>
-      <c r="B420" s="19"/>
-      <c r="C420" s="22"/>
+      <c r="B420" s="20"/>
+      <c r="C420" s="23"/>
       <c r="D420" s="4" t="s">
         <v>4</v>
       </c>
@@ -14898,10 +14898,10 @@
       <c r="A422" s="3">
         <v>351</v>
       </c>
-      <c r="B422" s="17" t="s">
+      <c r="B422" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C422" s="17" t="s">
+      <c r="C422" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D422" s="11" t="s">
@@ -14938,8 +14938,8 @@
       <c r="A423" s="3">
         <v>352</v>
       </c>
-      <c r="B423" s="18"/>
-      <c r="C423" s="18"/>
+      <c r="B423" s="19"/>
+      <c r="C423" s="19"/>
       <c r="D423" s="4" t="s">
         <v>12</v>
       </c>
@@ -14974,8 +14974,8 @@
       <c r="A424" s="3">
         <v>353</v>
       </c>
-      <c r="B424" s="18"/>
-      <c r="C424" s="18"/>
+      <c r="B424" s="19"/>
+      <c r="C424" s="19"/>
       <c r="D424" s="4" t="s">
         <v>16</v>
       </c>
@@ -15010,8 +15010,8 @@
       <c r="A425" s="3">
         <v>354</v>
       </c>
-      <c r="B425" s="18"/>
-      <c r="C425" s="18"/>
+      <c r="B425" s="19"/>
+      <c r="C425" s="19"/>
       <c r="D425" s="4" t="s">
         <v>14</v>
       </c>
@@ -15046,8 +15046,8 @@
       <c r="A426" s="3">
         <v>355</v>
       </c>
-      <c r="B426" s="19"/>
-      <c r="C426" s="19"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="20"/>
       <c r="D426" s="4" t="s">
         <v>4</v>
       </c>
@@ -15096,10 +15096,10 @@
       <c r="A428" s="3">
         <v>356</v>
       </c>
-      <c r="B428" s="17" t="s">
+      <c r="B428" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C428" s="20" t="s">
+      <c r="C428" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D428" s="11" t="s">
@@ -15136,8 +15136,8 @@
       <c r="A429" s="3">
         <v>357</v>
       </c>
-      <c r="B429" s="18"/>
-      <c r="C429" s="21"/>
+      <c r="B429" s="19"/>
+      <c r="C429" s="22"/>
       <c r="D429" s="4" t="s">
         <v>12</v>
       </c>
@@ -15172,8 +15172,8 @@
       <c r="A430" s="3">
         <v>358</v>
       </c>
-      <c r="B430" s="18"/>
-      <c r="C430" s="21"/>
+      <c r="B430" s="19"/>
+      <c r="C430" s="22"/>
       <c r="D430" s="4" t="s">
         <v>16</v>
       </c>
@@ -15208,8 +15208,8 @@
       <c r="A431" s="3">
         <v>359</v>
       </c>
-      <c r="B431" s="18"/>
-      <c r="C431" s="21"/>
+      <c r="B431" s="19"/>
+      <c r="C431" s="22"/>
       <c r="D431" s="4" t="s">
         <v>14</v>
       </c>
@@ -15244,8 +15244,8 @@
       <c r="A432" s="3">
         <v>360</v>
       </c>
-      <c r="B432" s="19"/>
-      <c r="C432" s="22"/>
+      <c r="B432" s="20"/>
+      <c r="C432" s="23"/>
       <c r="D432" s="4" t="s">
         <v>4</v>
       </c>
@@ -15294,10 +15294,10 @@
       <c r="A434" s="3">
         <v>361</v>
       </c>
-      <c r="B434" s="17" t="s">
+      <c r="B434" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C434" s="20" t="s">
+      <c r="C434" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D434" s="11" t="s">
@@ -15334,8 +15334,8 @@
       <c r="A435" s="3">
         <v>362</v>
       </c>
-      <c r="B435" s="18"/>
-      <c r="C435" s="21"/>
+      <c r="B435" s="19"/>
+      <c r="C435" s="22"/>
       <c r="D435" s="4" t="s">
         <v>12</v>
       </c>
@@ -15370,8 +15370,8 @@
       <c r="A436" s="3">
         <v>363</v>
       </c>
-      <c r="B436" s="18"/>
-      <c r="C436" s="21"/>
+      <c r="B436" s="19"/>
+      <c r="C436" s="22"/>
       <c r="D436" s="4" t="s">
         <v>16</v>
       </c>
@@ -15406,8 +15406,8 @@
       <c r="A437" s="3">
         <v>364</v>
       </c>
-      <c r="B437" s="18"/>
-      <c r="C437" s="21"/>
+      <c r="B437" s="19"/>
+      <c r="C437" s="22"/>
       <c r="D437" s="4" t="s">
         <v>14</v>
       </c>
@@ -15442,8 +15442,8 @@
       <c r="A438" s="3">
         <v>365</v>
       </c>
-      <c r="B438" s="19"/>
-      <c r="C438" s="22"/>
+      <c r="B438" s="20"/>
+      <c r="C438" s="23"/>
       <c r="D438" s="4" t="s">
         <v>4</v>
       </c>
@@ -15492,10 +15492,10 @@
       <c r="A440" s="3">
         <v>366</v>
       </c>
-      <c r="B440" s="17" t="s">
+      <c r="B440" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C440" s="20" t="s">
+      <c r="C440" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D440" s="11" t="s">
@@ -15532,8 +15532,8 @@
       <c r="A441" s="3">
         <v>367</v>
       </c>
-      <c r="B441" s="18"/>
-      <c r="C441" s="21"/>
+      <c r="B441" s="19"/>
+      <c r="C441" s="22"/>
       <c r="D441" s="4" t="s">
         <v>12</v>
       </c>
@@ -15568,8 +15568,8 @@
       <c r="A442" s="3">
         <v>368</v>
       </c>
-      <c r="B442" s="18"/>
-      <c r="C442" s="21"/>
+      <c r="B442" s="19"/>
+      <c r="C442" s="22"/>
       <c r="D442" s="4" t="s">
         <v>16</v>
       </c>
@@ -15604,8 +15604,8 @@
       <c r="A443" s="3">
         <v>369</v>
       </c>
-      <c r="B443" s="18"/>
-      <c r="C443" s="21"/>
+      <c r="B443" s="19"/>
+      <c r="C443" s="22"/>
       <c r="D443" s="4" t="s">
         <v>14</v>
       </c>
@@ -15640,8 +15640,8 @@
       <c r="A444" s="3">
         <v>370</v>
       </c>
-      <c r="B444" s="19"/>
-      <c r="C444" s="22"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="23"/>
       <c r="D444" s="4" t="s">
         <v>4</v>
       </c>
@@ -15690,10 +15690,10 @@
       <c r="A446" s="3">
         <v>371</v>
       </c>
-      <c r="B446" s="17" t="s">
+      <c r="B446" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C446" s="17" t="s">
+      <c r="C446" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D446" s="11" t="s">
@@ -15730,8 +15730,8 @@
       <c r="A447" s="3">
         <v>372</v>
       </c>
-      <c r="B447" s="18"/>
-      <c r="C447" s="18"/>
+      <c r="B447" s="19"/>
+      <c r="C447" s="19"/>
       <c r="D447" s="4" t="s">
         <v>12</v>
       </c>
@@ -15766,8 +15766,8 @@
       <c r="A448" s="3">
         <v>373</v>
       </c>
-      <c r="B448" s="18"/>
-      <c r="C448" s="18"/>
+      <c r="B448" s="19"/>
+      <c r="C448" s="19"/>
       <c r="D448" s="4" t="s">
         <v>16</v>
       </c>
@@ -15802,8 +15802,8 @@
       <c r="A449" s="3">
         <v>374</v>
       </c>
-      <c r="B449" s="18"/>
-      <c r="C449" s="18"/>
+      <c r="B449" s="19"/>
+      <c r="C449" s="19"/>
       <c r="D449" s="4" t="s">
         <v>14</v>
       </c>
@@ -15838,8 +15838,8 @@
       <c r="A450" s="3">
         <v>375</v>
       </c>
-      <c r="B450" s="19"/>
-      <c r="C450" s="19"/>
+      <c r="B450" s="20"/>
+      <c r="C450" s="20"/>
       <c r="D450" s="4" t="s">
         <v>4</v>
       </c>
@@ -15888,10 +15888,10 @@
       <c r="A452" s="3">
         <v>376</v>
       </c>
-      <c r="B452" s="17" t="s">
+      <c r="B452" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C452" s="20" t="s">
+      <c r="C452" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D452" s="11" t="s">
@@ -15928,8 +15928,8 @@
       <c r="A453" s="3">
         <v>377</v>
       </c>
-      <c r="B453" s="18"/>
-      <c r="C453" s="21"/>
+      <c r="B453" s="19"/>
+      <c r="C453" s="22"/>
       <c r="D453" s="4" t="s">
         <v>12</v>
       </c>
@@ -15964,8 +15964,8 @@
       <c r="A454" s="3">
         <v>378</v>
       </c>
-      <c r="B454" s="18"/>
-      <c r="C454" s="21"/>
+      <c r="B454" s="19"/>
+      <c r="C454" s="22"/>
       <c r="D454" s="4" t="s">
         <v>16</v>
       </c>
@@ -16000,8 +16000,8 @@
       <c r="A455" s="3">
         <v>379</v>
       </c>
-      <c r="B455" s="18"/>
-      <c r="C455" s="21"/>
+      <c r="B455" s="19"/>
+      <c r="C455" s="22"/>
       <c r="D455" s="4" t="s">
         <v>14</v>
       </c>
@@ -16036,8 +16036,8 @@
       <c r="A456" s="3">
         <v>380</v>
       </c>
-      <c r="B456" s="19"/>
-      <c r="C456" s="22"/>
+      <c r="B456" s="20"/>
+      <c r="C456" s="23"/>
       <c r="D456" s="4" t="s">
         <v>4</v>
       </c>
@@ -16086,10 +16086,10 @@
       <c r="A458" s="3">
         <v>381</v>
       </c>
-      <c r="B458" s="17" t="s">
+      <c r="B458" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C458" s="17" t="s">
+      <c r="C458" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D458" s="11" t="s">
@@ -16124,8 +16124,8 @@
       <c r="A459" s="3">
         <v>382</v>
       </c>
-      <c r="B459" s="18"/>
-      <c r="C459" s="18"/>
+      <c r="B459" s="19"/>
+      <c r="C459" s="19"/>
       <c r="D459" s="4" t="s">
         <v>12</v>
       </c>
@@ -16158,8 +16158,8 @@
       <c r="A460" s="3">
         <v>383</v>
       </c>
-      <c r="B460" s="18"/>
-      <c r="C460" s="18"/>
+      <c r="B460" s="19"/>
+      <c r="C460" s="19"/>
       <c r="D460" s="4" t="s">
         <v>16</v>
       </c>
@@ -16192,8 +16192,8 @@
       <c r="A461" s="3">
         <v>384</v>
       </c>
-      <c r="B461" s="18"/>
-      <c r="C461" s="18"/>
+      <c r="B461" s="19"/>
+      <c r="C461" s="19"/>
       <c r="D461" s="4" t="s">
         <v>14</v>
       </c>
@@ -16226,8 +16226,8 @@
       <c r="A462" s="3">
         <v>385</v>
       </c>
-      <c r="B462" s="19"/>
-      <c r="C462" s="19"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="20"/>
       <c r="D462" s="4" t="s">
         <v>4</v>
       </c>
@@ -16274,10 +16274,10 @@
       <c r="A464" s="3">
         <v>386</v>
       </c>
-      <c r="B464" s="17" t="s">
+      <c r="B464" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C464" s="17" t="s">
+      <c r="C464" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D464" s="11" t="s">
@@ -16312,8 +16312,8 @@
       <c r="A465" s="3">
         <v>387</v>
       </c>
-      <c r="B465" s="18"/>
-      <c r="C465" s="18"/>
+      <c r="B465" s="19"/>
+      <c r="C465" s="19"/>
       <c r="D465" s="4" t="s">
         <v>12</v>
       </c>
@@ -16346,8 +16346,8 @@
       <c r="A466" s="3">
         <v>388</v>
       </c>
-      <c r="B466" s="18"/>
-      <c r="C466" s="18"/>
+      <c r="B466" s="19"/>
+      <c r="C466" s="19"/>
       <c r="D466" s="4" t="s">
         <v>16</v>
       </c>
@@ -16380,8 +16380,8 @@
       <c r="A467" s="3">
         <v>389</v>
       </c>
-      <c r="B467" s="18"/>
-      <c r="C467" s="18"/>
+      <c r="B467" s="19"/>
+      <c r="C467" s="19"/>
       <c r="D467" s="4" t="s">
         <v>14</v>
       </c>
@@ -16414,8 +16414,8 @@
       <c r="A468" s="3">
         <v>390</v>
       </c>
-      <c r="B468" s="19"/>
-      <c r="C468" s="19"/>
+      <c r="B468" s="20"/>
+      <c r="C468" s="20"/>
       <c r="D468" s="4" t="s">
         <v>4</v>
       </c>
@@ -16462,10 +16462,10 @@
       <c r="A470" s="3">
         <v>391</v>
       </c>
-      <c r="B470" s="17" t="s">
+      <c r="B470" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C470" s="20" t="s">
+      <c r="C470" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D470" s="11" t="s">
@@ -16500,8 +16500,8 @@
       <c r="A471" s="3">
         <v>392</v>
       </c>
-      <c r="B471" s="18"/>
-      <c r="C471" s="21"/>
+      <c r="B471" s="19"/>
+      <c r="C471" s="22"/>
       <c r="D471" s="4" t="s">
         <v>12</v>
       </c>
@@ -16534,8 +16534,8 @@
       <c r="A472" s="3">
         <v>393</v>
       </c>
-      <c r="B472" s="18"/>
-      <c r="C472" s="21"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="22"/>
       <c r="D472" s="4" t="s">
         <v>16</v>
       </c>
@@ -16568,8 +16568,8 @@
       <c r="A473" s="3">
         <v>394</v>
       </c>
-      <c r="B473" s="18"/>
-      <c r="C473" s="21"/>
+      <c r="B473" s="19"/>
+      <c r="C473" s="22"/>
       <c r="D473" s="4" t="s">
         <v>14</v>
       </c>
@@ -16602,8 +16602,8 @@
       <c r="A474" s="3">
         <v>395</v>
       </c>
-      <c r="B474" s="19"/>
-      <c r="C474" s="22"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="23"/>
       <c r="D474" s="4" t="s">
         <v>4</v>
       </c>
@@ -16650,10 +16650,10 @@
       <c r="A476" s="3">
         <v>396</v>
       </c>
-      <c r="B476" s="17" t="s">
+      <c r="B476" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C476" s="20" t="s">
+      <c r="C476" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D476" s="11" t="s">
@@ -16688,8 +16688,8 @@
       <c r="A477" s="3">
         <v>397</v>
       </c>
-      <c r="B477" s="18"/>
-      <c r="C477" s="21"/>
+      <c r="B477" s="19"/>
+      <c r="C477" s="22"/>
       <c r="D477" s="4" t="s">
         <v>12</v>
       </c>
@@ -16722,8 +16722,8 @@
       <c r="A478" s="3">
         <v>398</v>
       </c>
-      <c r="B478" s="18"/>
-      <c r="C478" s="21"/>
+      <c r="B478" s="19"/>
+      <c r="C478" s="22"/>
       <c r="D478" s="4" t="s">
         <v>16</v>
       </c>
@@ -16756,8 +16756,8 @@
       <c r="A479" s="3">
         <v>399</v>
       </c>
-      <c r="B479" s="18"/>
-      <c r="C479" s="21"/>
+      <c r="B479" s="19"/>
+      <c r="C479" s="22"/>
       <c r="D479" s="4" t="s">
         <v>14</v>
       </c>
@@ -16790,8 +16790,8 @@
       <c r="A480" s="3">
         <v>400</v>
       </c>
-      <c r="B480" s="19"/>
-      <c r="C480" s="22"/>
+      <c r="B480" s="20"/>
+      <c r="C480" s="23"/>
       <c r="D480" s="4" t="s">
         <v>4</v>
       </c>
@@ -16838,10 +16838,10 @@
       <c r="A482" s="3">
         <v>401</v>
       </c>
-      <c r="B482" s="17" t="s">
+      <c r="B482" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C482" s="17" t="s">
+      <c r="C482" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D482" s="11" t="s">
@@ -16876,8 +16876,8 @@
       <c r="A483" s="3">
         <v>402</v>
       </c>
-      <c r="B483" s="18"/>
-      <c r="C483" s="18"/>
+      <c r="B483" s="19"/>
+      <c r="C483" s="19"/>
       <c r="D483" s="4" t="s">
         <v>12</v>
       </c>
@@ -16910,8 +16910,8 @@
       <c r="A484" s="3">
         <v>403</v>
       </c>
-      <c r="B484" s="18"/>
-      <c r="C484" s="18"/>
+      <c r="B484" s="19"/>
+      <c r="C484" s="19"/>
       <c r="D484" s="4" t="s">
         <v>16</v>
       </c>
@@ -16944,8 +16944,8 @@
       <c r="A485" s="3">
         <v>404</v>
       </c>
-      <c r="B485" s="18"/>
-      <c r="C485" s="18"/>
+      <c r="B485" s="19"/>
+      <c r="C485" s="19"/>
       <c r="D485" s="4" t="s">
         <v>14</v>
       </c>
@@ -16978,8 +16978,8 @@
       <c r="A486" s="3">
         <v>405</v>
       </c>
-      <c r="B486" s="19"/>
-      <c r="C486" s="19"/>
+      <c r="B486" s="20"/>
+      <c r="C486" s="20"/>
       <c r="D486" s="4" t="s">
         <v>4</v>
       </c>
@@ -17026,10 +17026,10 @@
       <c r="A488" s="3">
         <v>406</v>
       </c>
-      <c r="B488" s="17" t="s">
+      <c r="B488" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C488" s="17" t="s">
+      <c r="C488" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D488" s="11" t="s">
@@ -17064,8 +17064,8 @@
       <c r="A489" s="3">
         <v>407</v>
       </c>
-      <c r="B489" s="18"/>
-      <c r="C489" s="18"/>
+      <c r="B489" s="19"/>
+      <c r="C489" s="19"/>
       <c r="D489" s="4" t="s">
         <v>12</v>
       </c>
@@ -17098,8 +17098,8 @@
       <c r="A490" s="3">
         <v>408</v>
       </c>
-      <c r="B490" s="18"/>
-      <c r="C490" s="18"/>
+      <c r="B490" s="19"/>
+      <c r="C490" s="19"/>
       <c r="D490" s="4" t="s">
         <v>16</v>
       </c>
@@ -17132,8 +17132,8 @@
       <c r="A491" s="3">
         <v>409</v>
       </c>
-      <c r="B491" s="18"/>
-      <c r="C491" s="18"/>
+      <c r="B491" s="19"/>
+      <c r="C491" s="19"/>
       <c r="D491" s="4" t="s">
         <v>14</v>
       </c>
@@ -17166,8 +17166,8 @@
       <c r="A492" s="3">
         <v>410</v>
       </c>
-      <c r="B492" s="19"/>
-      <c r="C492" s="19"/>
+      <c r="B492" s="20"/>
+      <c r="C492" s="20"/>
       <c r="D492" s="4" t="s">
         <v>4</v>
       </c>
@@ -17214,10 +17214,10 @@
       <c r="A494" s="3">
         <v>411</v>
       </c>
-      <c r="B494" s="17" t="s">
+      <c r="B494" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C494" s="20" t="s">
+      <c r="C494" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D494" s="11" t="s">
@@ -17252,8 +17252,8 @@
       <c r="A495" s="3">
         <v>412</v>
       </c>
-      <c r="B495" s="18"/>
-      <c r="C495" s="21"/>
+      <c r="B495" s="19"/>
+      <c r="C495" s="22"/>
       <c r="D495" s="4" t="s">
         <v>12</v>
       </c>
@@ -17286,8 +17286,8 @@
       <c r="A496" s="3">
         <v>413</v>
       </c>
-      <c r="B496" s="18"/>
-      <c r="C496" s="21"/>
+      <c r="B496" s="19"/>
+      <c r="C496" s="22"/>
       <c r="D496" s="4" t="s">
         <v>16</v>
       </c>
@@ -17320,8 +17320,8 @@
       <c r="A497" s="3">
         <v>414</v>
       </c>
-      <c r="B497" s="18"/>
-      <c r="C497" s="21"/>
+      <c r="B497" s="19"/>
+      <c r="C497" s="22"/>
       <c r="D497" s="4" t="s">
         <v>14</v>
       </c>
@@ -17354,8 +17354,8 @@
       <c r="A498" s="3">
         <v>415</v>
       </c>
-      <c r="B498" s="19"/>
-      <c r="C498" s="22"/>
+      <c r="B498" s="20"/>
+      <c r="C498" s="23"/>
       <c r="D498" s="4" t="s">
         <v>4</v>
       </c>
@@ -17402,10 +17402,10 @@
       <c r="A500" s="3">
         <v>416</v>
       </c>
-      <c r="B500" s="17" t="s">
+      <c r="B500" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C500" s="17" t="s">
+      <c r="C500" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D500" s="11" t="s">
@@ -17440,8 +17440,8 @@
       <c r="A501" s="3">
         <v>417</v>
       </c>
-      <c r="B501" s="18"/>
-      <c r="C501" s="18"/>
+      <c r="B501" s="19"/>
+      <c r="C501" s="19"/>
       <c r="D501" s="4" t="s">
         <v>12</v>
       </c>
@@ -17474,8 +17474,8 @@
       <c r="A502" s="3">
         <v>418</v>
       </c>
-      <c r="B502" s="18"/>
-      <c r="C502" s="18"/>
+      <c r="B502" s="19"/>
+      <c r="C502" s="19"/>
       <c r="D502" s="4" t="s">
         <v>16</v>
       </c>
@@ -17508,8 +17508,8 @@
       <c r="A503" s="3">
         <v>419</v>
       </c>
-      <c r="B503" s="18"/>
-      <c r="C503" s="18"/>
+      <c r="B503" s="19"/>
+      <c r="C503" s="19"/>
       <c r="D503" s="4" t="s">
         <v>14</v>
       </c>
@@ -17542,8 +17542,8 @@
       <c r="A504" s="3">
         <v>420</v>
       </c>
-      <c r="B504" s="19"/>
-      <c r="C504" s="19"/>
+      <c r="B504" s="20"/>
+      <c r="C504" s="20"/>
       <c r="D504" s="4" t="s">
         <v>4</v>
       </c>
@@ -17590,10 +17590,10 @@
       <c r="A506" s="3">
         <v>421</v>
       </c>
-      <c r="B506" s="17" t="s">
+      <c r="B506" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C506" s="20" t="s">
+      <c r="C506" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D506" s="11" t="s">
@@ -17628,8 +17628,8 @@
       <c r="A507" s="3">
         <v>422</v>
       </c>
-      <c r="B507" s="18"/>
-      <c r="C507" s="21"/>
+      <c r="B507" s="19"/>
+      <c r="C507" s="22"/>
       <c r="D507" s="4" t="s">
         <v>12</v>
       </c>
@@ -17662,8 +17662,8 @@
       <c r="A508" s="3">
         <v>423</v>
       </c>
-      <c r="B508" s="18"/>
-      <c r="C508" s="21"/>
+      <c r="B508" s="19"/>
+      <c r="C508" s="22"/>
       <c r="D508" s="4" t="s">
         <v>16</v>
       </c>
@@ -17696,8 +17696,8 @@
       <c r="A509" s="3">
         <v>424</v>
       </c>
-      <c r="B509" s="18"/>
-      <c r="C509" s="21"/>
+      <c r="B509" s="19"/>
+      <c r="C509" s="22"/>
       <c r="D509" s="4" t="s">
         <v>14</v>
       </c>
@@ -17730,8 +17730,8 @@
       <c r="A510" s="3">
         <v>425</v>
       </c>
-      <c r="B510" s="19"/>
-      <c r="C510" s="22"/>
+      <c r="B510" s="20"/>
+      <c r="C510" s="23"/>
       <c r="D510" s="4" t="s">
         <v>4</v>
       </c>
@@ -17778,10 +17778,10 @@
       <c r="A512" s="3">
         <v>426</v>
       </c>
-      <c r="B512" s="17" t="s">
+      <c r="B512" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C512" s="20" t="s">
+      <c r="C512" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D512" s="11" t="s">
@@ -17816,8 +17816,8 @@
       <c r="A513" s="3">
         <v>427</v>
       </c>
-      <c r="B513" s="18"/>
-      <c r="C513" s="21"/>
+      <c r="B513" s="19"/>
+      <c r="C513" s="22"/>
       <c r="D513" s="4" t="s">
         <v>12</v>
       </c>
@@ -17850,8 +17850,8 @@
       <c r="A514" s="3">
         <v>428</v>
       </c>
-      <c r="B514" s="18"/>
-      <c r="C514" s="21"/>
+      <c r="B514" s="19"/>
+      <c r="C514" s="22"/>
       <c r="D514" s="4" t="s">
         <v>16</v>
       </c>
@@ -17884,8 +17884,8 @@
       <c r="A515" s="3">
         <v>429</v>
       </c>
-      <c r="B515" s="18"/>
-      <c r="C515" s="21"/>
+      <c r="B515" s="19"/>
+      <c r="C515" s="22"/>
       <c r="D515" s="4" t="s">
         <v>14</v>
       </c>
@@ -17918,8 +17918,8 @@
       <c r="A516" s="3">
         <v>430</v>
       </c>
-      <c r="B516" s="19"/>
-      <c r="C516" s="22"/>
+      <c r="B516" s="20"/>
+      <c r="C516" s="23"/>
       <c r="D516" s="4" t="s">
         <v>4</v>
       </c>
@@ -17966,10 +17966,10 @@
       <c r="A518" s="3">
         <v>431</v>
       </c>
-      <c r="B518" s="17" t="s">
+      <c r="B518" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C518" s="20" t="s">
+      <c r="C518" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D518" s="11" t="s">
@@ -18004,8 +18004,8 @@
       <c r="A519" s="3">
         <v>432</v>
       </c>
-      <c r="B519" s="18"/>
-      <c r="C519" s="21"/>
+      <c r="B519" s="19"/>
+      <c r="C519" s="22"/>
       <c r="D519" s="4" t="s">
         <v>12</v>
       </c>
@@ -18038,8 +18038,8 @@
       <c r="A520" s="3">
         <v>433</v>
       </c>
-      <c r="B520" s="18"/>
-      <c r="C520" s="21"/>
+      <c r="B520" s="19"/>
+      <c r="C520" s="22"/>
       <c r="D520" s="4" t="s">
         <v>16</v>
       </c>
@@ -18072,8 +18072,8 @@
       <c r="A521" s="3">
         <v>434</v>
       </c>
-      <c r="B521" s="18"/>
-      <c r="C521" s="21"/>
+      <c r="B521" s="19"/>
+      <c r="C521" s="22"/>
       <c r="D521" s="4" t="s">
         <v>14</v>
       </c>
@@ -18106,8 +18106,8 @@
       <c r="A522" s="3">
         <v>435</v>
       </c>
-      <c r="B522" s="19"/>
-      <c r="C522" s="22"/>
+      <c r="B522" s="20"/>
+      <c r="C522" s="23"/>
       <c r="D522" s="4" t="s">
         <v>4</v>
       </c>
@@ -18154,10 +18154,10 @@
       <c r="A524" s="3">
         <v>436</v>
       </c>
-      <c r="B524" s="17" t="s">
+      <c r="B524" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C524" s="20" t="s">
+      <c r="C524" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D524" s="11" t="s">
@@ -18192,8 +18192,8 @@
       <c r="A525" s="3">
         <v>437</v>
       </c>
-      <c r="B525" s="18"/>
-      <c r="C525" s="21"/>
+      <c r="B525" s="19"/>
+      <c r="C525" s="22"/>
       <c r="D525" s="4" t="s">
         <v>12</v>
       </c>
@@ -18226,8 +18226,8 @@
       <c r="A526" s="3">
         <v>438</v>
       </c>
-      <c r="B526" s="18"/>
-      <c r="C526" s="21"/>
+      <c r="B526" s="19"/>
+      <c r="C526" s="22"/>
       <c r="D526" s="4" t="s">
         <v>16</v>
       </c>
@@ -18260,8 +18260,8 @@
       <c r="A527" s="3">
         <v>439</v>
       </c>
-      <c r="B527" s="18"/>
-      <c r="C527" s="21"/>
+      <c r="B527" s="19"/>
+      <c r="C527" s="22"/>
       <c r="D527" s="4" t="s">
         <v>14</v>
       </c>
@@ -18294,8 +18294,8 @@
       <c r="A528" s="3">
         <v>440</v>
       </c>
-      <c r="B528" s="19"/>
-      <c r="C528" s="22"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="23"/>
       <c r="D528" s="4" t="s">
         <v>4</v>
       </c>
@@ -18342,10 +18342,10 @@
       <c r="A530" s="3">
         <v>441</v>
       </c>
-      <c r="B530" s="17" t="s">
+      <c r="B530" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C530" s="20" t="s">
+      <c r="C530" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D530" s="11" t="s">
@@ -18380,8 +18380,8 @@
       <c r="A531" s="3">
         <v>442</v>
       </c>
-      <c r="B531" s="18"/>
-      <c r="C531" s="21"/>
+      <c r="B531" s="19"/>
+      <c r="C531" s="22"/>
       <c r="D531" s="4" t="s">
         <v>12</v>
       </c>
@@ -18414,8 +18414,8 @@
       <c r="A532" s="3">
         <v>443</v>
       </c>
-      <c r="B532" s="18"/>
-      <c r="C532" s="21"/>
+      <c r="B532" s="19"/>
+      <c r="C532" s="22"/>
       <c r="D532" s="4" t="s">
         <v>16</v>
       </c>
@@ -18448,8 +18448,8 @@
       <c r="A533" s="3">
         <v>444</v>
       </c>
-      <c r="B533" s="18"/>
-      <c r="C533" s="21"/>
+      <c r="B533" s="19"/>
+      <c r="C533" s="22"/>
       <c r="D533" s="4" t="s">
         <v>14</v>
       </c>
@@ -18482,8 +18482,8 @@
       <c r="A534" s="3">
         <v>445</v>
       </c>
-      <c r="B534" s="19"/>
-      <c r="C534" s="22"/>
+      <c r="B534" s="20"/>
+      <c r="C534" s="23"/>
       <c r="D534" s="4" t="s">
         <v>4</v>
       </c>
@@ -18530,10 +18530,10 @@
       <c r="A536" s="3">
         <v>446</v>
       </c>
-      <c r="B536" s="17" t="s">
+      <c r="B536" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C536" s="17" t="s">
+      <c r="C536" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D536" s="11" t="s">
@@ -18568,8 +18568,8 @@
       <c r="A537" s="3">
         <v>447</v>
       </c>
-      <c r="B537" s="18"/>
-      <c r="C537" s="18"/>
+      <c r="B537" s="19"/>
+      <c r="C537" s="19"/>
       <c r="D537" s="4" t="s">
         <v>12</v>
       </c>
@@ -18602,8 +18602,8 @@
       <c r="A538" s="3">
         <v>448</v>
       </c>
-      <c r="B538" s="18"/>
-      <c r="C538" s="18"/>
+      <c r="B538" s="19"/>
+      <c r="C538" s="19"/>
       <c r="D538" s="4" t="s">
         <v>16</v>
       </c>
@@ -18636,8 +18636,8 @@
       <c r="A539" s="3">
         <v>449</v>
       </c>
-      <c r="B539" s="18"/>
-      <c r="C539" s="18"/>
+      <c r="B539" s="19"/>
+      <c r="C539" s="19"/>
       <c r="D539" s="4" t="s">
         <v>14</v>
       </c>
@@ -18670,8 +18670,8 @@
       <c r="A540" s="3">
         <v>450</v>
       </c>
-      <c r="B540" s="19"/>
-      <c r="C540" s="19"/>
+      <c r="B540" s="20"/>
+      <c r="C540" s="20"/>
       <c r="D540" s="4" t="s">
         <v>4</v>
       </c>
@@ -18718,10 +18718,10 @@
       <c r="A542" s="3">
         <v>451</v>
       </c>
-      <c r="B542" s="17" t="s">
+      <c r="B542" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C542" s="20" t="s">
+      <c r="C542" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D542" s="11" t="s">
@@ -18756,8 +18756,8 @@
       <c r="A543" s="3">
         <v>452</v>
       </c>
-      <c r="B543" s="18"/>
-      <c r="C543" s="21"/>
+      <c r="B543" s="19"/>
+      <c r="C543" s="22"/>
       <c r="D543" s="4" t="s">
         <v>12</v>
       </c>
@@ -18790,8 +18790,8 @@
       <c r="A544" s="3">
         <v>453</v>
       </c>
-      <c r="B544" s="18"/>
-      <c r="C544" s="21"/>
+      <c r="B544" s="19"/>
+      <c r="C544" s="22"/>
       <c r="D544" s="4" t="s">
         <v>16</v>
       </c>
@@ -18824,8 +18824,8 @@
       <c r="A545" s="3">
         <v>454</v>
       </c>
-      <c r="B545" s="18"/>
-      <c r="C545" s="21"/>
+      <c r="B545" s="19"/>
+      <c r="C545" s="22"/>
       <c r="D545" s="4" t="s">
         <v>14</v>
       </c>
@@ -18858,8 +18858,8 @@
       <c r="A546" s="3">
         <v>455</v>
       </c>
-      <c r="B546" s="19"/>
-      <c r="C546" s="22"/>
+      <c r="B546" s="20"/>
+      <c r="C546" s="23"/>
       <c r="D546" s="4" t="s">
         <v>4</v>
       </c>
@@ -18906,10 +18906,10 @@
       <c r="A548" s="3">
         <v>456</v>
       </c>
-      <c r="B548" s="17" t="s">
+      <c r="B548" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C548" s="20" t="s">
+      <c r="C548" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D548" s="11" t="s">
@@ -18944,8 +18944,8 @@
       <c r="A549" s="3">
         <v>457</v>
       </c>
-      <c r="B549" s="18"/>
-      <c r="C549" s="21"/>
+      <c r="B549" s="19"/>
+      <c r="C549" s="22"/>
       <c r="D549" s="4" t="s">
         <v>12</v>
       </c>
@@ -18978,8 +18978,8 @@
       <c r="A550" s="3">
         <v>458</v>
       </c>
-      <c r="B550" s="18"/>
-      <c r="C550" s="21"/>
+      <c r="B550" s="19"/>
+      <c r="C550" s="22"/>
       <c r="D550" s="4" t="s">
         <v>16</v>
       </c>
@@ -19012,8 +19012,8 @@
       <c r="A551" s="3">
         <v>459</v>
       </c>
-      <c r="B551" s="18"/>
-      <c r="C551" s="21"/>
+      <c r="B551" s="19"/>
+      <c r="C551" s="22"/>
       <c r="D551" s="4" t="s">
         <v>14</v>
       </c>
@@ -19046,8 +19046,8 @@
       <c r="A552" s="3">
         <v>460</v>
       </c>
-      <c r="B552" s="19"/>
-      <c r="C552" s="22"/>
+      <c r="B552" s="20"/>
+      <c r="C552" s="23"/>
       <c r="D552" s="4" t="s">
         <v>4</v>
       </c>
@@ -19094,10 +19094,10 @@
       <c r="A554" s="3">
         <v>461</v>
       </c>
-      <c r="B554" s="17" t="s">
+      <c r="B554" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C554" s="20" t="s">
+      <c r="C554" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D554" s="11" t="s">
@@ -19132,8 +19132,8 @@
       <c r="A555" s="3">
         <v>462</v>
       </c>
-      <c r="B555" s="18"/>
-      <c r="C555" s="21"/>
+      <c r="B555" s="19"/>
+      <c r="C555" s="22"/>
       <c r="D555" s="4" t="s">
         <v>12</v>
       </c>
@@ -19166,8 +19166,8 @@
       <c r="A556" s="3">
         <v>463</v>
       </c>
-      <c r="B556" s="18"/>
-      <c r="C556" s="21"/>
+      <c r="B556" s="19"/>
+      <c r="C556" s="22"/>
       <c r="D556" s="4" t="s">
         <v>16</v>
       </c>
@@ -19200,8 +19200,8 @@
       <c r="A557" s="3">
         <v>464</v>
       </c>
-      <c r="B557" s="18"/>
-      <c r="C557" s="21"/>
+      <c r="B557" s="19"/>
+      <c r="C557" s="22"/>
       <c r="D557" s="4" t="s">
         <v>14</v>
       </c>
@@ -19234,8 +19234,8 @@
       <c r="A558" s="3">
         <v>465</v>
       </c>
-      <c r="B558" s="19"/>
-      <c r="C558" s="22"/>
+      <c r="B558" s="20"/>
+      <c r="C558" s="23"/>
       <c r="D558" s="4" t="s">
         <v>4</v>
       </c>
@@ -19282,10 +19282,10 @@
       <c r="A560" s="3">
         <v>466</v>
       </c>
-      <c r="B560" s="17" t="s">
+      <c r="B560" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C560" s="20" t="s">
+      <c r="C560" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D560" s="11" t="s">
@@ -19320,8 +19320,8 @@
       <c r="A561" s="3">
         <v>467</v>
       </c>
-      <c r="B561" s="18"/>
-      <c r="C561" s="21"/>
+      <c r="B561" s="19"/>
+      <c r="C561" s="22"/>
       <c r="D561" s="4" t="s">
         <v>12</v>
       </c>
@@ -19354,8 +19354,8 @@
       <c r="A562" s="3">
         <v>468</v>
       </c>
-      <c r="B562" s="18"/>
-      <c r="C562" s="21"/>
+      <c r="B562" s="19"/>
+      <c r="C562" s="22"/>
       <c r="D562" s="4" t="s">
         <v>16</v>
       </c>
@@ -19388,8 +19388,8 @@
       <c r="A563" s="3">
         <v>469</v>
       </c>
-      <c r="B563" s="18"/>
-      <c r="C563" s="21"/>
+      <c r="B563" s="19"/>
+      <c r="C563" s="22"/>
       <c r="D563" s="4" t="s">
         <v>14</v>
       </c>
@@ -19422,8 +19422,8 @@
       <c r="A564" s="3">
         <v>470</v>
       </c>
-      <c r="B564" s="19"/>
-      <c r="C564" s="22"/>
+      <c r="B564" s="20"/>
+      <c r="C564" s="23"/>
       <c r="D564" s="4" t="s">
         <v>4</v>
       </c>
@@ -19470,10 +19470,10 @@
       <c r="A566" s="3">
         <v>471</v>
       </c>
-      <c r="B566" s="17" t="s">
+      <c r="B566" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C566" s="20" t="s">
+      <c r="C566" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D566" s="11" t="s">
@@ -19508,8 +19508,8 @@
       <c r="A567" s="3">
         <v>472</v>
       </c>
-      <c r="B567" s="18"/>
-      <c r="C567" s="21"/>
+      <c r="B567" s="19"/>
+      <c r="C567" s="22"/>
       <c r="D567" s="4" t="s">
         <v>12</v>
       </c>
@@ -19542,8 +19542,8 @@
       <c r="A568" s="3">
         <v>473</v>
       </c>
-      <c r="B568" s="18"/>
-      <c r="C568" s="21"/>
+      <c r="B568" s="19"/>
+      <c r="C568" s="22"/>
       <c r="D568" s="4" t="s">
         <v>16</v>
       </c>
@@ -19576,8 +19576,8 @@
       <c r="A569" s="3">
         <v>474</v>
       </c>
-      <c r="B569" s="18"/>
-      <c r="C569" s="21"/>
+      <c r="B569" s="19"/>
+      <c r="C569" s="22"/>
       <c r="D569" s="4" t="s">
         <v>14</v>
       </c>
@@ -19610,8 +19610,8 @@
       <c r="A570" s="3">
         <v>475</v>
       </c>
-      <c r="B570" s="19"/>
-      <c r="C570" s="22"/>
+      <c r="B570" s="20"/>
+      <c r="C570" s="23"/>
       <c r="D570" s="4" t="s">
         <v>4</v>
       </c>
@@ -19658,10 +19658,10 @@
       <c r="A572" s="3">
         <v>476</v>
       </c>
-      <c r="B572" s="17" t="s">
+      <c r="B572" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C572" s="20" t="s">
+      <c r="C572" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D572" s="11" t="s">
@@ -19696,8 +19696,8 @@
       <c r="A573" s="3">
         <v>477</v>
       </c>
-      <c r="B573" s="18"/>
-      <c r="C573" s="21"/>
+      <c r="B573" s="19"/>
+      <c r="C573" s="22"/>
       <c r="D573" s="4" t="s">
         <v>12</v>
       </c>
@@ -19730,8 +19730,8 @@
       <c r="A574" s="3">
         <v>478</v>
       </c>
-      <c r="B574" s="18"/>
-      <c r="C574" s="21"/>
+      <c r="B574" s="19"/>
+      <c r="C574" s="22"/>
       <c r="D574" s="4" t="s">
         <v>16</v>
       </c>
@@ -19764,8 +19764,8 @@
       <c r="A575" s="3">
         <v>479</v>
       </c>
-      <c r="B575" s="18"/>
-      <c r="C575" s="21"/>
+      <c r="B575" s="19"/>
+      <c r="C575" s="22"/>
       <c r="D575" s="4" t="s">
         <v>14</v>
       </c>
@@ -19798,8 +19798,8 @@
       <c r="A576" s="3">
         <v>480</v>
       </c>
-      <c r="B576" s="19"/>
-      <c r="C576" s="22"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="23"/>
       <c r="D576" s="4" t="s">
         <v>4</v>
       </c>
@@ -19846,10 +19846,10 @@
       <c r="A578" s="3">
         <v>481</v>
       </c>
-      <c r="B578" s="17" t="s">
+      <c r="B578" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C578" s="17" t="s">
+      <c r="C578" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D578" s="11" t="s">
@@ -19884,8 +19884,8 @@
       <c r="A579" s="3">
         <v>482</v>
       </c>
-      <c r="B579" s="18"/>
-      <c r="C579" s="18"/>
+      <c r="B579" s="19"/>
+      <c r="C579" s="19"/>
       <c r="D579" s="4" t="s">
         <v>12</v>
       </c>
@@ -19918,8 +19918,8 @@
       <c r="A580" s="3">
         <v>483</v>
       </c>
-      <c r="B580" s="18"/>
-      <c r="C580" s="18"/>
+      <c r="B580" s="19"/>
+      <c r="C580" s="19"/>
       <c r="D580" s="4" t="s">
         <v>16</v>
       </c>
@@ -19952,8 +19952,8 @@
       <c r="A581" s="3">
         <v>484</v>
       </c>
-      <c r="B581" s="18"/>
-      <c r="C581" s="18"/>
+      <c r="B581" s="19"/>
+      <c r="C581" s="19"/>
       <c r="D581" s="4" t="s">
         <v>14</v>
       </c>
@@ -19986,8 +19986,8 @@
       <c r="A582" s="3">
         <v>485</v>
       </c>
-      <c r="B582" s="19"/>
-      <c r="C582" s="19"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="20"/>
       <c r="D582" s="4" t="s">
         <v>4</v>
       </c>
@@ -20034,10 +20034,10 @@
       <c r="A584" s="3">
         <v>486</v>
       </c>
-      <c r="B584" s="17" t="s">
+      <c r="B584" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C584" s="17" t="s">
+      <c r="C584" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D584" s="11" t="s">
@@ -20072,8 +20072,8 @@
       <c r="A585" s="3">
         <v>487</v>
       </c>
-      <c r="B585" s="18"/>
-      <c r="C585" s="18"/>
+      <c r="B585" s="19"/>
+      <c r="C585" s="19"/>
       <c r="D585" s="4" t="s">
         <v>12</v>
       </c>
@@ -20106,8 +20106,8 @@
       <c r="A586" s="3">
         <v>488</v>
       </c>
-      <c r="B586" s="18"/>
-      <c r="C586" s="18"/>
+      <c r="B586" s="19"/>
+      <c r="C586" s="19"/>
       <c r="D586" s="4" t="s">
         <v>16</v>
       </c>
@@ -20140,8 +20140,8 @@
       <c r="A587" s="3">
         <v>489</v>
       </c>
-      <c r="B587" s="18"/>
-      <c r="C587" s="18"/>
+      <c r="B587" s="19"/>
+      <c r="C587" s="19"/>
       <c r="D587" s="4" t="s">
         <v>14</v>
       </c>
@@ -20174,8 +20174,8 @@
       <c r="A588" s="3">
         <v>490</v>
       </c>
-      <c r="B588" s="19"/>
-      <c r="C588" s="19"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="20"/>
       <c r="D588" s="4" t="s">
         <v>4</v>
       </c>
@@ -20222,10 +20222,10 @@
       <c r="A590" s="3">
         <v>491</v>
       </c>
-      <c r="B590" s="17" t="s">
+      <c r="B590" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C590" s="17" t="s">
+      <c r="C590" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D590" s="11" t="s">
@@ -20260,8 +20260,8 @@
       <c r="A591" s="3">
         <v>492</v>
       </c>
-      <c r="B591" s="18"/>
-      <c r="C591" s="18"/>
+      <c r="B591" s="19"/>
+      <c r="C591" s="19"/>
       <c r="D591" s="4" t="s">
         <v>12</v>
       </c>
@@ -20294,8 +20294,8 @@
       <c r="A592" s="3">
         <v>493</v>
       </c>
-      <c r="B592" s="18"/>
-      <c r="C592" s="18"/>
+      <c r="B592" s="19"/>
+      <c r="C592" s="19"/>
       <c r="D592" s="4" t="s">
         <v>16</v>
       </c>
@@ -20328,8 +20328,8 @@
       <c r="A593" s="3">
         <v>494</v>
       </c>
-      <c r="B593" s="18"/>
-      <c r="C593" s="18"/>
+      <c r="B593" s="19"/>
+      <c r="C593" s="19"/>
       <c r="D593" s="4" t="s">
         <v>14</v>
       </c>
@@ -20362,8 +20362,8 @@
       <c r="A594" s="3">
         <v>495</v>
       </c>
-      <c r="B594" s="19"/>
-      <c r="C594" s="19"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="20"/>
       <c r="D594" s="4" t="s">
         <v>4</v>
       </c>
@@ -20410,10 +20410,10 @@
       <c r="A596" s="3">
         <v>496</v>
       </c>
-      <c r="B596" s="17" t="s">
+      <c r="B596" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C596" s="17" t="s">
+      <c r="C596" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D596" s="11" t="s">
@@ -20448,8 +20448,8 @@
       <c r="A597" s="3">
         <v>497</v>
       </c>
-      <c r="B597" s="18"/>
-      <c r="C597" s="18"/>
+      <c r="B597" s="19"/>
+      <c r="C597" s="19"/>
       <c r="D597" s="4" t="s">
         <v>12</v>
       </c>
@@ -20482,8 +20482,8 @@
       <c r="A598" s="3">
         <v>498</v>
       </c>
-      <c r="B598" s="18"/>
-      <c r="C598" s="18"/>
+      <c r="B598" s="19"/>
+      <c r="C598" s="19"/>
       <c r="D598" s="4" t="s">
         <v>16</v>
       </c>
@@ -20516,8 +20516,8 @@
       <c r="A599" s="3">
         <v>499</v>
       </c>
-      <c r="B599" s="18"/>
-      <c r="C599" s="18"/>
+      <c r="B599" s="19"/>
+      <c r="C599" s="19"/>
       <c r="D599" s="4" t="s">
         <v>14</v>
       </c>
@@ -20550,8 +20550,8 @@
       <c r="A600" s="3">
         <v>500</v>
       </c>
-      <c r="B600" s="19"/>
-      <c r="C600" s="19"/>
+      <c r="B600" s="20"/>
+      <c r="C600" s="20"/>
       <c r="D600" s="4" t="s">
         <v>4</v>
       </c>
@@ -20583,59 +20583,133 @@
   </sheetData>
   <autoFilter ref="A1:L600" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="200">
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="C182:C186"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="C170:C174"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="C212:C216"/>
-    <mergeCell ref="C206:C210"/>
-    <mergeCell ref="C200:C204"/>
-    <mergeCell ref="C194:C198"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="C146:C150"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="C272:C276"/>
-    <mergeCell ref="C266:C270"/>
-    <mergeCell ref="C260:C264"/>
-    <mergeCell ref="C254:C258"/>
-    <mergeCell ref="C248:C252"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="C230:C234"/>
-    <mergeCell ref="C224:C228"/>
+    <mergeCell ref="B566:B570"/>
+    <mergeCell ref="B560:B564"/>
+    <mergeCell ref="B554:B558"/>
+    <mergeCell ref="B548:B552"/>
+    <mergeCell ref="B596:B600"/>
+    <mergeCell ref="B590:B594"/>
+    <mergeCell ref="B584:B588"/>
+    <mergeCell ref="B578:B582"/>
+    <mergeCell ref="B572:B576"/>
+    <mergeCell ref="B542:B546"/>
+    <mergeCell ref="B536:B540"/>
+    <mergeCell ref="B530:B534"/>
+    <mergeCell ref="B524:B528"/>
+    <mergeCell ref="B518:B522"/>
+    <mergeCell ref="B512:B516"/>
+    <mergeCell ref="B506:B510"/>
+    <mergeCell ref="B500:B504"/>
+    <mergeCell ref="B494:B498"/>
+    <mergeCell ref="B488:B492"/>
+    <mergeCell ref="B416:B420"/>
+    <mergeCell ref="B410:B414"/>
+    <mergeCell ref="B482:B486"/>
+    <mergeCell ref="B464:B468"/>
+    <mergeCell ref="B458:B462"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B476:B480"/>
+    <mergeCell ref="B470:B474"/>
+    <mergeCell ref="B446:B450"/>
+    <mergeCell ref="B440:B444"/>
+    <mergeCell ref="B434:B438"/>
+    <mergeCell ref="B428:B432"/>
+    <mergeCell ref="B422:B426"/>
+    <mergeCell ref="B404:B408"/>
+    <mergeCell ref="B398:B402"/>
+    <mergeCell ref="B392:B396"/>
+    <mergeCell ref="B386:B390"/>
+    <mergeCell ref="B380:B384"/>
+    <mergeCell ref="B374:B378"/>
+    <mergeCell ref="B368:B372"/>
+    <mergeCell ref="B362:B366"/>
+    <mergeCell ref="B356:B360"/>
+    <mergeCell ref="B350:B354"/>
+    <mergeCell ref="B284:B288"/>
+    <mergeCell ref="B278:B282"/>
+    <mergeCell ref="B272:B276"/>
+    <mergeCell ref="B344:B348"/>
+    <mergeCell ref="B338:B342"/>
+    <mergeCell ref="B332:B336"/>
+    <mergeCell ref="B326:B330"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="B314:B318"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="B296:B300"/>
+    <mergeCell ref="B290:B294"/>
+    <mergeCell ref="B182:B186"/>
+    <mergeCell ref="B176:B180"/>
+    <mergeCell ref="B170:B174"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="B212:B216"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="B200:B204"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="B266:B270"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B254:B258"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="B230:B234"/>
+    <mergeCell ref="B224:B228"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C560:C564"/>
+    <mergeCell ref="C554:C558"/>
+    <mergeCell ref="C548:C552"/>
+    <mergeCell ref="C596:C600"/>
+    <mergeCell ref="C590:C594"/>
+    <mergeCell ref="C584:C588"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="C572:C576"/>
+    <mergeCell ref="C566:C570"/>
+    <mergeCell ref="C494:C498"/>
+    <mergeCell ref="C488:C492"/>
+    <mergeCell ref="C542:C546"/>
+    <mergeCell ref="C536:C540"/>
+    <mergeCell ref="C530:C534"/>
+    <mergeCell ref="C524:C528"/>
+    <mergeCell ref="C518:C522"/>
+    <mergeCell ref="C512:C516"/>
+    <mergeCell ref="C506:C510"/>
+    <mergeCell ref="C500:C504"/>
+    <mergeCell ref="C452:C456"/>
+    <mergeCell ref="C482:C486"/>
+    <mergeCell ref="C476:C480"/>
+    <mergeCell ref="C470:C474"/>
+    <mergeCell ref="C464:C468"/>
+    <mergeCell ref="C458:C462"/>
+    <mergeCell ref="C410:C414"/>
+    <mergeCell ref="C404:C408"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="C446:C450"/>
+    <mergeCell ref="C440:C444"/>
+    <mergeCell ref="C434:C438"/>
+    <mergeCell ref="C428:C432"/>
+    <mergeCell ref="C422:C426"/>
+    <mergeCell ref="C416:C420"/>
     <mergeCell ref="C392:C396"/>
     <mergeCell ref="C386:C390"/>
     <mergeCell ref="C380:C384"/>
@@ -20656,133 +20730,59 @@
     <mergeCell ref="C308:C312"/>
     <mergeCell ref="C302:C306"/>
     <mergeCell ref="C296:C300"/>
-    <mergeCell ref="C452:C456"/>
-    <mergeCell ref="C482:C486"/>
-    <mergeCell ref="C476:C480"/>
-    <mergeCell ref="C470:C474"/>
-    <mergeCell ref="C464:C468"/>
-    <mergeCell ref="C458:C462"/>
-    <mergeCell ref="C410:C414"/>
-    <mergeCell ref="C404:C408"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="C446:C450"/>
-    <mergeCell ref="C440:C444"/>
-    <mergeCell ref="C434:C438"/>
-    <mergeCell ref="C428:C432"/>
-    <mergeCell ref="C422:C426"/>
-    <mergeCell ref="C416:C420"/>
-    <mergeCell ref="C494:C498"/>
-    <mergeCell ref="C488:C492"/>
-    <mergeCell ref="C542:C546"/>
-    <mergeCell ref="C536:C540"/>
-    <mergeCell ref="C530:C534"/>
-    <mergeCell ref="C524:C528"/>
-    <mergeCell ref="C518:C522"/>
-    <mergeCell ref="C512:C516"/>
-    <mergeCell ref="C506:C510"/>
-    <mergeCell ref="C500:C504"/>
-    <mergeCell ref="C560:C564"/>
-    <mergeCell ref="C554:C558"/>
-    <mergeCell ref="C548:C552"/>
-    <mergeCell ref="C596:C600"/>
-    <mergeCell ref="C590:C594"/>
-    <mergeCell ref="C584:C588"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="C572:C576"/>
-    <mergeCell ref="C566:C570"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="B266:B270"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B254:B258"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="B230:B234"/>
-    <mergeCell ref="B224:B228"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B182:B186"/>
-    <mergeCell ref="B176:B180"/>
-    <mergeCell ref="B170:B174"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="B212:B216"/>
-    <mergeCell ref="B206:B210"/>
-    <mergeCell ref="B200:B204"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="B350:B354"/>
-    <mergeCell ref="B284:B288"/>
-    <mergeCell ref="B278:B282"/>
-    <mergeCell ref="B272:B276"/>
-    <mergeCell ref="B344:B348"/>
-    <mergeCell ref="B338:B342"/>
-    <mergeCell ref="B332:B336"/>
-    <mergeCell ref="B326:B330"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="B314:B318"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="B296:B300"/>
-    <mergeCell ref="B290:B294"/>
-    <mergeCell ref="B404:B408"/>
-    <mergeCell ref="B398:B402"/>
-    <mergeCell ref="B392:B396"/>
-    <mergeCell ref="B386:B390"/>
-    <mergeCell ref="B380:B384"/>
-    <mergeCell ref="B374:B378"/>
-    <mergeCell ref="B368:B372"/>
-    <mergeCell ref="B362:B366"/>
-    <mergeCell ref="B356:B360"/>
-    <mergeCell ref="B488:B492"/>
-    <mergeCell ref="B416:B420"/>
-    <mergeCell ref="B410:B414"/>
-    <mergeCell ref="B482:B486"/>
-    <mergeCell ref="B464:B468"/>
-    <mergeCell ref="B458:B462"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B476:B480"/>
-    <mergeCell ref="B470:B474"/>
-    <mergeCell ref="B446:B450"/>
-    <mergeCell ref="B440:B444"/>
-    <mergeCell ref="B434:B438"/>
-    <mergeCell ref="B428:B432"/>
-    <mergeCell ref="B422:B426"/>
-    <mergeCell ref="B542:B546"/>
-    <mergeCell ref="B536:B540"/>
-    <mergeCell ref="B530:B534"/>
-    <mergeCell ref="B524:B528"/>
-    <mergeCell ref="B518:B522"/>
-    <mergeCell ref="B512:B516"/>
-    <mergeCell ref="B506:B510"/>
-    <mergeCell ref="B500:B504"/>
-    <mergeCell ref="B494:B498"/>
-    <mergeCell ref="B566:B570"/>
-    <mergeCell ref="B560:B564"/>
-    <mergeCell ref="B554:B558"/>
-    <mergeCell ref="B548:B552"/>
-    <mergeCell ref="B596:B600"/>
-    <mergeCell ref="B590:B594"/>
-    <mergeCell ref="B584:B588"/>
-    <mergeCell ref="B578:B582"/>
-    <mergeCell ref="B572:B576"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C272:C276"/>
+    <mergeCell ref="C266:C270"/>
+    <mergeCell ref="C260:C264"/>
+    <mergeCell ref="C254:C258"/>
+    <mergeCell ref="C248:C252"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="C230:C234"/>
+    <mergeCell ref="C224:C228"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C146:C150"/>
+    <mergeCell ref="C140:C144"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C182:C186"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="C170:C174"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="C206:C210"/>
+    <mergeCell ref="C200:C204"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
